--- a/excel_python/total_report.xlsx
+++ b/excel_python/total_report.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Monat</t>
   </si>
   <si>
-    <t>Westwind- Eisenbahnservice</t>
+    <t>Jahr</t>
   </si>
   <si>
-    <t>Jahr</t>
+    <t>Westwind- Eisenbahnservice</t>
   </si>
   <si>
     <t>Boelerstr. 153</t>
@@ -43,10 +43,7 @@
     <t>Gesamtstunden</t>
   </si>
   <si>
-    <t>Gesamt Pause</t>
-  </si>
-  <si>
-    <t>Gesamtarbeitzeit</t>
+    <t>Überstunden</t>
   </si>
   <si>
     <t>Nachtzuschlag 25%</t>
@@ -68,6 +65,12 @@
   </si>
   <si>
     <t>Verpflegung</t>
+  </si>
+  <si>
+    <t>Bonus Zahlungen</t>
+  </si>
+  <si>
+    <t>Vorschuss Zahlungen</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border/>
     <border>
       <left/>
@@ -223,11 +226,22 @@
       <right/>
       <bottom/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -255,8 +269,8 @@
     <xf borderId="3" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -276,10 +290,16 @@
     <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="5" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -312,29 +332,26 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -378,7 +395,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3419475" cy="1914525"/>
@@ -615,14 +632,15 @@
     <col customWidth="1" min="4" max="4" width="10.57"/>
     <col customWidth="1" min="5" max="5" width="13.71"/>
     <col customWidth="1" min="6" max="6" width="12.29"/>
-    <col customWidth="1" min="7" max="7" width="15.0"/>
+    <col customWidth="1" min="7" max="7" width="17.86"/>
     <col customWidth="1" min="8" max="8" width="16.14"/>
     <col customWidth="1" min="9" max="9" width="17.29"/>
     <col customWidth="1" min="10" max="11" width="15.86"/>
     <col customWidth="1" min="12" max="12" width="15.57"/>
     <col customWidth="1" min="13" max="13" width="11.86"/>
     <col customWidth="1" min="14" max="14" width="10.71"/>
-    <col customWidth="1" min="15" max="24" width="9.14"/>
+    <col customWidth="1" min="15" max="15" width="14.71"/>
+    <col customWidth="1" min="16" max="23" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -649,7 +667,6 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
     </row>
     <row r="2" ht="36.75" customHeight="1">
       <c r="A2" s="1"/>
@@ -657,8 +674,8 @@
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="5"/>
       <c r="J2" s="1"/>
@@ -675,7 +692,6 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
     </row>
     <row r="3" ht="18.0" customHeight="1">
       <c r="A3" s="1"/>
@@ -685,14 +701,8 @@
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -705,22 +715,21 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
     </row>
     <row r="4" ht="18.0" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -734,21 +743,19 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
     </row>
     <row r="5" ht="18.0" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="1" t="s">
-        <v>4</v>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -761,21 +768,19 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
     </row>
     <row r="6" ht="18.0" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="22" t="s">
-        <v>5</v>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -788,18 +793,19 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
     </row>
     <row r="7" ht="18.0" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="4"/>
-      <c r="J7" s="1"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -812,23 +818,22 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
     </row>
     <row r="8" ht="18.0" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -838,50 +843,51 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
     </row>
     <row r="9" ht="28.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="N9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="1"/>
+      <c r="O9" s="31" t="s">
+        <v>19</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -890,24 +896,23 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="1"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -916,24 +921,23 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="1"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -942,24 +946,23 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="1"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -968,24 +971,23 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="1"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -994,24 +996,23 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="1"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1020,24 +1021,23 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="1"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1046,24 +1046,23 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="1"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1072,24 +1071,23 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="1"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1098,24 +1096,23 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="1"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1124,24 +1121,23 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-    </row>
-    <row r="19" ht="19.5" customHeight="1">
+    </row>
+    <row r="19" ht="30.0" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
       <c r="M19" s="33"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="1"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1150,23 +1146,22 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-    </row>
-    <row r="20" ht="19.5" customHeight="1">
+    </row>
+    <row r="20" ht="30.0" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
       <c r="M20" s="33"/>
-      <c r="N20" s="34"/>
+      <c r="N20" s="33"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1176,23 +1171,22 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
     </row>
     <row r="21" ht="30.0" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1202,23 +1196,22 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
     </row>
     <row r="22" ht="30.0" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -1228,23 +1221,22 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
     </row>
     <row r="23" ht="30.0" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -1254,23 +1246,22 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
     </row>
     <row r="24" ht="30.0" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -1280,23 +1271,22 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
     </row>
     <row r="25" ht="30.0" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -1306,23 +1296,22 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
     </row>
     <row r="26" ht="30.0" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -1332,7 +1321,6 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
     </row>
     <row r="27" ht="30.0" customHeight="1">
       <c r="A27" s="1"/>
@@ -1358,7 +1346,6 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
     </row>
     <row r="28" ht="30.0" customHeight="1">
       <c r="A28" s="1"/>
@@ -1384,7 +1371,6 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
     </row>
     <row r="29" ht="30.0" customHeight="1">
       <c r="A29" s="1"/>
@@ -1410,7 +1396,6 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
     </row>
     <row r="30" ht="30.0" customHeight="1">
       <c r="A30" s="1"/>
@@ -1436,7 +1421,6 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
     </row>
     <row r="31" ht="30.0" customHeight="1">
       <c r="A31" s="1"/>
@@ -1462,7 +1446,6 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
     </row>
     <row r="32" ht="30.0" customHeight="1">
       <c r="A32" s="1"/>
@@ -1488,7 +1471,6 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
     </row>
     <row r="33" ht="30.0" customHeight="1">
       <c r="A33" s="1"/>
@@ -1514,7 +1496,6 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
     </row>
     <row r="34" ht="30.0" customHeight="1">
       <c r="A34" s="1"/>
@@ -1540,7 +1521,6 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
     </row>
     <row r="35" ht="30.0" customHeight="1">
       <c r="A35" s="1"/>
@@ -1566,7 +1546,6 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
     </row>
     <row r="36" ht="30.0" customHeight="1">
       <c r="A36" s="1"/>
@@ -1592,7 +1571,6 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
     </row>
     <row r="37" ht="30.0" customHeight="1">
       <c r="A37" s="1"/>
@@ -1618,7 +1596,6 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
     </row>
     <row r="38" ht="30.0" customHeight="1">
       <c r="A38" s="1"/>
@@ -1644,7 +1621,6 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
     </row>
     <row r="39" ht="30.0" customHeight="1">
       <c r="A39" s="1"/>
@@ -1670,7 +1646,6 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
     </row>
     <row r="40" ht="30.0" customHeight="1">
       <c r="A40" s="1"/>
@@ -1696,7 +1671,6 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
     </row>
     <row r="41" ht="30.0" customHeight="1">
       <c r="A41" s="1"/>
@@ -1722,7 +1696,6 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
     </row>
     <row r="42" ht="30.0" customHeight="1">
       <c r="A42" s="1"/>
@@ -1748,7 +1721,6 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
     </row>
     <row r="43" ht="30.0" customHeight="1">
       <c r="A43" s="1"/>
@@ -1774,7 +1746,6 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
     </row>
     <row r="44" ht="30.0" customHeight="1">
       <c r="A44" s="1"/>
@@ -1800,7 +1771,6 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
     </row>
     <row r="45" ht="30.0" customHeight="1">
       <c r="A45" s="1"/>
@@ -1826,7 +1796,6 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
     </row>
     <row r="46" ht="30.0" customHeight="1">
       <c r="A46" s="1"/>
@@ -1852,7 +1821,6 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
     </row>
     <row r="47" ht="30.0" customHeight="1">
       <c r="A47" s="1"/>
@@ -1878,7 +1846,6 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
     </row>
     <row r="48" ht="30.0" customHeight="1">
       <c r="A48" s="1"/>
@@ -1904,7 +1871,6 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
     </row>
     <row r="49" ht="30.0" customHeight="1">
       <c r="A49" s="1"/>
@@ -1930,7 +1896,6 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
     </row>
     <row r="50" ht="30.0" customHeight="1">
       <c r="A50" s="1"/>
@@ -1956,7 +1921,6 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
     </row>
     <row r="51" ht="30.0" customHeight="1">
       <c r="A51" s="1"/>
@@ -1982,7 +1946,6 @@
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
     </row>
     <row r="52" ht="30.0" customHeight="1">
       <c r="A52" s="1"/>
@@ -2008,7 +1971,6 @@
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
     </row>
     <row r="53" ht="30.0" customHeight="1">
       <c r="A53" s="1"/>
@@ -2034,7 +1996,6 @@
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
     </row>
     <row r="54" ht="30.0" customHeight="1">
       <c r="A54" s="1"/>
@@ -2060,7 +2021,6 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
     </row>
     <row r="55" ht="30.0" customHeight="1">
       <c r="A55" s="1"/>
@@ -2086,7 +2046,6 @@
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
     </row>
     <row r="56" ht="30.0" customHeight="1">
       <c r="A56" s="1"/>
@@ -2112,7 +2071,6 @@
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
     </row>
     <row r="57" ht="30.0" customHeight="1">
       <c r="A57" s="1"/>
@@ -2138,7 +2096,6 @@
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
     </row>
     <row r="58" ht="30.0" customHeight="1">
       <c r="A58" s="1"/>
@@ -2164,7 +2121,6 @@
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
     </row>
     <row r="59" ht="30.0" customHeight="1">
       <c r="A59" s="1"/>
@@ -2190,7 +2146,6 @@
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
     </row>
     <row r="60" ht="30.0" customHeight="1">
       <c r="A60" s="1"/>
@@ -2216,7 +2171,6 @@
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
     </row>
     <row r="61" ht="30.0" customHeight="1">
       <c r="A61" s="1"/>
@@ -2242,7 +2196,6 @@
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
     </row>
     <row r="62" ht="30.0" customHeight="1">
       <c r="A62" s="1"/>
@@ -2268,7 +2221,6 @@
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
     </row>
     <row r="63" ht="30.0" customHeight="1">
       <c r="A63" s="1"/>
@@ -2294,7 +2246,6 @@
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
     </row>
     <row r="64" ht="30.0" customHeight="1">
       <c r="A64" s="1"/>
@@ -2320,7 +2271,6 @@
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
     </row>
     <row r="65" ht="30.0" customHeight="1">
       <c r="A65" s="1"/>
@@ -2346,7 +2296,6 @@
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
     </row>
     <row r="66" ht="30.0" customHeight="1">
       <c r="A66" s="1"/>
@@ -2372,7 +2321,6 @@
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
     </row>
     <row r="67" ht="30.0" customHeight="1">
       <c r="A67" s="1"/>
@@ -2398,7 +2346,6 @@
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
     </row>
     <row r="68" ht="30.0" customHeight="1">
       <c r="A68" s="1"/>
@@ -2424,7 +2371,6 @@
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
     </row>
     <row r="69" ht="30.0" customHeight="1">
       <c r="A69" s="1"/>
@@ -2450,7 +2396,6 @@
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
     </row>
     <row r="70" ht="30.0" customHeight="1">
       <c r="A70" s="1"/>
@@ -2476,7 +2421,6 @@
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
     </row>
     <row r="71" ht="30.0" customHeight="1">
       <c r="A71" s="1"/>
@@ -2502,7 +2446,6 @@
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
     </row>
     <row r="72" ht="30.0" customHeight="1">
       <c r="A72" s="1"/>
@@ -2528,7 +2471,6 @@
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
     </row>
     <row r="73" ht="30.0" customHeight="1">
       <c r="A73" s="1"/>
@@ -2554,7 +2496,6 @@
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
     </row>
     <row r="74" ht="30.0" customHeight="1">
       <c r="A74" s="1"/>
@@ -2580,7 +2521,6 @@
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
     </row>
     <row r="75" ht="30.0" customHeight="1">
       <c r="A75" s="1"/>
@@ -2606,7 +2546,6 @@
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
     </row>
     <row r="76" ht="30.0" customHeight="1">
       <c r="A76" s="1"/>
@@ -2632,7 +2571,6 @@
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
     </row>
     <row r="77" ht="30.0" customHeight="1">
       <c r="A77" s="1"/>
@@ -2658,7 +2596,6 @@
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
     </row>
     <row r="78" ht="30.0" customHeight="1">
       <c r="A78" s="1"/>
@@ -2684,7 +2621,6 @@
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
     </row>
     <row r="79" ht="30.0" customHeight="1">
       <c r="A79" s="1"/>
@@ -2710,7 +2646,6 @@
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
     </row>
     <row r="80" ht="30.0" customHeight="1">
       <c r="A80" s="1"/>
@@ -2736,7 +2671,6 @@
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
     </row>
     <row r="81" ht="30.0" customHeight="1">
       <c r="A81" s="1"/>
@@ -2762,7 +2696,6 @@
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
     </row>
     <row r="82" ht="30.0" customHeight="1">
       <c r="A82" s="1"/>
@@ -2788,7 +2721,6 @@
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
-      <c r="X82" s="1"/>
     </row>
     <row r="83" ht="30.0" customHeight="1">
       <c r="A83" s="1"/>
@@ -2814,7 +2746,6 @@
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
-      <c r="X83" s="1"/>
     </row>
     <row r="84" ht="30.0" customHeight="1">
       <c r="A84" s="1"/>
@@ -2840,7 +2771,6 @@
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
-      <c r="X84" s="1"/>
     </row>
     <row r="85" ht="30.0" customHeight="1">
       <c r="A85" s="1"/>
@@ -2866,7 +2796,6 @@
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
-      <c r="X85" s="1"/>
     </row>
     <row r="86" ht="30.0" customHeight="1">
       <c r="A86" s="1"/>
@@ -2892,7 +2821,6 @@
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
     </row>
     <row r="87" ht="30.0" customHeight="1">
       <c r="A87" s="1"/>
@@ -2918,7 +2846,6 @@
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
-      <c r="X87" s="1"/>
     </row>
     <row r="88" ht="30.0" customHeight="1">
       <c r="A88" s="1"/>
@@ -2944,7 +2871,6 @@
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
-      <c r="X88" s="1"/>
     </row>
     <row r="89" ht="30.0" customHeight="1">
       <c r="A89" s="1"/>
@@ -2970,7 +2896,6 @@
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
-      <c r="X89" s="1"/>
     </row>
     <row r="90" ht="30.0" customHeight="1">
       <c r="A90" s="1"/>
@@ -2996,7 +2921,6 @@
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
-      <c r="X90" s="1"/>
     </row>
     <row r="91" ht="30.0" customHeight="1">
       <c r="A91" s="1"/>
@@ -3022,7 +2946,6 @@
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
     </row>
     <row r="92" ht="30.0" customHeight="1">
       <c r="A92" s="1"/>
@@ -3048,7 +2971,6 @@
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
     </row>
     <row r="93" ht="30.0" customHeight="1">
       <c r="A93" s="1"/>
@@ -3074,7 +2996,6 @@
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
-      <c r="X93" s="1"/>
     </row>
     <row r="94" ht="30.0" customHeight="1">
       <c r="A94" s="1"/>
@@ -3100,7 +3021,6 @@
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
     </row>
     <row r="95" ht="30.0" customHeight="1">
       <c r="A95" s="1"/>
@@ -3126,7 +3046,6 @@
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
-      <c r="X95" s="1"/>
     </row>
     <row r="96" ht="30.0" customHeight="1">
       <c r="A96" s="1"/>
@@ -3152,7 +3071,6 @@
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
-      <c r="X96" s="1"/>
     </row>
     <row r="97" ht="30.0" customHeight="1">
       <c r="A97" s="1"/>
@@ -3178,7 +3096,6 @@
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
-      <c r="X97" s="1"/>
     </row>
     <row r="98" ht="30.0" customHeight="1">
       <c r="A98" s="1"/>
@@ -3204,7 +3121,6 @@
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
-      <c r="X98" s="1"/>
     </row>
     <row r="99" ht="30.0" customHeight="1">
       <c r="A99" s="1"/>
@@ -3230,7 +3146,6 @@
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
-      <c r="X99" s="1"/>
     </row>
     <row r="100" ht="30.0" customHeight="1">
       <c r="A100" s="1"/>
@@ -3256,7 +3171,6 @@
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
-      <c r="X100" s="1"/>
     </row>
     <row r="101" ht="30.0" customHeight="1">
       <c r="A101" s="1"/>
@@ -3282,7 +3196,6 @@
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
-      <c r="X101" s="1"/>
     </row>
     <row r="102" ht="30.0" customHeight="1">
       <c r="A102" s="1"/>
@@ -3308,7 +3221,6 @@
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
-      <c r="X102" s="1"/>
     </row>
     <row r="103" ht="30.0" customHeight="1">
       <c r="A103" s="1"/>
@@ -3334,7 +3246,6 @@
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
-      <c r="X103" s="1"/>
     </row>
     <row r="104" ht="30.0" customHeight="1">
       <c r="A104" s="1"/>
@@ -3360,7 +3271,6 @@
       <c r="U104" s="1"/>
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
-      <c r="X104" s="1"/>
     </row>
     <row r="105" ht="30.0" customHeight="1">
       <c r="A105" s="1"/>
@@ -3386,7 +3296,6 @@
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
-      <c r="X105" s="1"/>
     </row>
     <row r="106" ht="30.0" customHeight="1">
       <c r="A106" s="1"/>
@@ -3412,7 +3321,6 @@
       <c r="U106" s="1"/>
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
-      <c r="X106" s="1"/>
     </row>
     <row r="107" ht="30.0" customHeight="1">
       <c r="A107" s="1"/>
@@ -3438,7 +3346,6 @@
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
-      <c r="X107" s="1"/>
     </row>
     <row r="108" ht="30.0" customHeight="1">
       <c r="A108" s="1"/>
@@ -3464,7 +3371,6 @@
       <c r="U108" s="1"/>
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
-      <c r="X108" s="1"/>
     </row>
     <row r="109" ht="30.0" customHeight="1">
       <c r="A109" s="1"/>
@@ -3490,7 +3396,6 @@
       <c r="U109" s="1"/>
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
-      <c r="X109" s="1"/>
     </row>
     <row r="110" ht="30.0" customHeight="1">
       <c r="A110" s="1"/>
@@ -3516,7 +3421,6 @@
       <c r="U110" s="1"/>
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
-      <c r="X110" s="1"/>
     </row>
     <row r="111" ht="30.0" customHeight="1">
       <c r="A111" s="1"/>
@@ -3542,7 +3446,6 @@
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
-      <c r="X111" s="1"/>
     </row>
     <row r="112" ht="30.0" customHeight="1">
       <c r="A112" s="1"/>
@@ -3568,7 +3471,6 @@
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
-      <c r="X112" s="1"/>
     </row>
     <row r="113" ht="30.0" customHeight="1">
       <c r="A113" s="1"/>
@@ -3594,7 +3496,6 @@
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
-      <c r="X113" s="1"/>
     </row>
     <row r="114" ht="30.0" customHeight="1">
       <c r="A114" s="1"/>
@@ -3620,7 +3521,6 @@
       <c r="U114" s="1"/>
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
-      <c r="X114" s="1"/>
     </row>
     <row r="115" ht="30.0" customHeight="1">
       <c r="A115" s="1"/>
@@ -3646,7 +3546,6 @@
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
-      <c r="X115" s="1"/>
     </row>
     <row r="116" ht="30.0" customHeight="1">
       <c r="A116" s="1"/>
@@ -3672,7 +3571,6 @@
       <c r="U116" s="1"/>
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
-      <c r="X116" s="1"/>
     </row>
     <row r="117" ht="30.0" customHeight="1">
       <c r="A117" s="1"/>
@@ -3698,7 +3596,6 @@
       <c r="U117" s="1"/>
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
-      <c r="X117" s="1"/>
     </row>
     <row r="118" ht="30.0" customHeight="1">
       <c r="A118" s="1"/>
@@ -3724,7 +3621,6 @@
       <c r="U118" s="1"/>
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
-      <c r="X118" s="1"/>
     </row>
     <row r="119" ht="30.0" customHeight="1">
       <c r="A119" s="1"/>
@@ -3750,7 +3646,6 @@
       <c r="U119" s="1"/>
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
-      <c r="X119" s="1"/>
     </row>
     <row r="120" ht="30.0" customHeight="1">
       <c r="A120" s="1"/>
@@ -3776,7 +3671,6 @@
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
-      <c r="X120" s="1"/>
     </row>
     <row r="121" ht="30.0" customHeight="1">
       <c r="A121" s="1"/>
@@ -3802,7 +3696,6 @@
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
-      <c r="X121" s="1"/>
     </row>
     <row r="122" ht="30.0" customHeight="1">
       <c r="A122" s="1"/>
@@ -3828,7 +3721,6 @@
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
-      <c r="X122" s="1"/>
     </row>
     <row r="123" ht="30.0" customHeight="1">
       <c r="A123" s="1"/>
@@ -3854,7 +3746,6 @@
       <c r="U123" s="1"/>
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
-      <c r="X123" s="1"/>
     </row>
     <row r="124" ht="30.0" customHeight="1">
       <c r="A124" s="1"/>
@@ -3880,7 +3771,6 @@
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
-      <c r="X124" s="1"/>
     </row>
     <row r="125" ht="30.0" customHeight="1">
       <c r="A125" s="1"/>
@@ -3906,7 +3796,6 @@
       <c r="U125" s="1"/>
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
-      <c r="X125" s="1"/>
     </row>
     <row r="126" ht="30.0" customHeight="1">
       <c r="A126" s="1"/>
@@ -3932,7 +3821,6 @@
       <c r="U126" s="1"/>
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
-      <c r="X126" s="1"/>
     </row>
     <row r="127" ht="30.0" customHeight="1">
       <c r="A127" s="1"/>
@@ -3958,7 +3846,6 @@
       <c r="U127" s="1"/>
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
-      <c r="X127" s="1"/>
     </row>
     <row r="128" ht="30.0" customHeight="1">
       <c r="A128" s="1"/>
@@ -3984,7 +3871,6 @@
       <c r="U128" s="1"/>
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
-      <c r="X128" s="1"/>
     </row>
     <row r="129" ht="30.0" customHeight="1">
       <c r="A129" s="1"/>
@@ -4010,7 +3896,6 @@
       <c r="U129" s="1"/>
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
-      <c r="X129" s="1"/>
     </row>
     <row r="130" ht="30.0" customHeight="1">
       <c r="A130" s="1"/>
@@ -4036,7 +3921,6 @@
       <c r="U130" s="1"/>
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
-      <c r="X130" s="1"/>
     </row>
     <row r="131" ht="30.0" customHeight="1">
       <c r="A131" s="1"/>
@@ -4062,7 +3946,6 @@
       <c r="U131" s="1"/>
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
-      <c r="X131" s="1"/>
     </row>
     <row r="132" ht="30.0" customHeight="1">
       <c r="A132" s="1"/>
@@ -4088,7 +3971,6 @@
       <c r="U132" s="1"/>
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
-      <c r="X132" s="1"/>
     </row>
     <row r="133" ht="30.0" customHeight="1">
       <c r="A133" s="1"/>
@@ -4114,7 +3996,6 @@
       <c r="U133" s="1"/>
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
-      <c r="X133" s="1"/>
     </row>
     <row r="134" ht="30.0" customHeight="1">
       <c r="A134" s="1"/>
@@ -4140,7 +4021,6 @@
       <c r="U134" s="1"/>
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
-      <c r="X134" s="1"/>
     </row>
     <row r="135" ht="30.0" customHeight="1">
       <c r="A135" s="1"/>
@@ -4166,7 +4046,6 @@
       <c r="U135" s="1"/>
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
-      <c r="X135" s="1"/>
     </row>
     <row r="136" ht="30.0" customHeight="1">
       <c r="A136" s="1"/>
@@ -4192,7 +4071,6 @@
       <c r="U136" s="1"/>
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
-      <c r="X136" s="1"/>
     </row>
     <row r="137" ht="30.0" customHeight="1">
       <c r="A137" s="1"/>
@@ -4218,7 +4096,6 @@
       <c r="U137" s="1"/>
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
-      <c r="X137" s="1"/>
     </row>
     <row r="138" ht="30.0" customHeight="1">
       <c r="A138" s="1"/>
@@ -4244,7 +4121,6 @@
       <c r="U138" s="1"/>
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
-      <c r="X138" s="1"/>
     </row>
     <row r="139" ht="30.0" customHeight="1">
       <c r="A139" s="1"/>
@@ -4270,7 +4146,6 @@
       <c r="U139" s="1"/>
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
-      <c r="X139" s="1"/>
     </row>
     <row r="140" ht="30.0" customHeight="1">
       <c r="A140" s="1"/>
@@ -4296,7 +4171,6 @@
       <c r="U140" s="1"/>
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
-      <c r="X140" s="1"/>
     </row>
     <row r="141" ht="30.0" customHeight="1">
       <c r="A141" s="1"/>
@@ -4322,7 +4196,6 @@
       <c r="U141" s="1"/>
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
-      <c r="X141" s="1"/>
     </row>
     <row r="142" ht="30.0" customHeight="1">
       <c r="A142" s="1"/>
@@ -4348,7 +4221,6 @@
       <c r="U142" s="1"/>
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
-      <c r="X142" s="1"/>
     </row>
     <row r="143" ht="30.0" customHeight="1">
       <c r="A143" s="1"/>
@@ -4374,7 +4246,6 @@
       <c r="U143" s="1"/>
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
-      <c r="X143" s="1"/>
     </row>
     <row r="144" ht="30.0" customHeight="1">
       <c r="A144" s="1"/>
@@ -4400,7 +4271,6 @@
       <c r="U144" s="1"/>
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
-      <c r="X144" s="1"/>
     </row>
     <row r="145" ht="30.0" customHeight="1">
       <c r="A145" s="1"/>
@@ -4426,7 +4296,6 @@
       <c r="U145" s="1"/>
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
-      <c r="X145" s="1"/>
     </row>
     <row r="146" ht="30.0" customHeight="1">
       <c r="A146" s="1"/>
@@ -4452,7 +4321,6 @@
       <c r="U146" s="1"/>
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
-      <c r="X146" s="1"/>
     </row>
     <row r="147" ht="30.0" customHeight="1">
       <c r="A147" s="1"/>
@@ -4478,7 +4346,6 @@
       <c r="U147" s="1"/>
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
-      <c r="X147" s="1"/>
     </row>
     <row r="148" ht="30.0" customHeight="1">
       <c r="A148" s="1"/>
@@ -4504,7 +4371,6 @@
       <c r="U148" s="1"/>
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
-      <c r="X148" s="1"/>
     </row>
     <row r="149" ht="30.0" customHeight="1">
       <c r="A149" s="1"/>
@@ -4530,7 +4396,6 @@
       <c r="U149" s="1"/>
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
-      <c r="X149" s="1"/>
     </row>
     <row r="150" ht="30.0" customHeight="1">
       <c r="A150" s="1"/>
@@ -4556,7 +4421,6 @@
       <c r="U150" s="1"/>
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
-      <c r="X150" s="1"/>
     </row>
     <row r="151" ht="30.0" customHeight="1">
       <c r="A151" s="1"/>
@@ -4582,7 +4446,6 @@
       <c r="U151" s="1"/>
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
-      <c r="X151" s="1"/>
     </row>
     <row r="152" ht="30.0" customHeight="1">
       <c r="A152" s="1"/>
@@ -4608,7 +4471,6 @@
       <c r="U152" s="1"/>
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
-      <c r="X152" s="1"/>
     </row>
     <row r="153" ht="30.0" customHeight="1">
       <c r="A153" s="1"/>
@@ -4634,7 +4496,6 @@
       <c r="U153" s="1"/>
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
-      <c r="X153" s="1"/>
     </row>
     <row r="154" ht="30.0" customHeight="1">
       <c r="A154" s="1"/>
@@ -4660,7 +4521,6 @@
       <c r="U154" s="1"/>
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
-      <c r="X154" s="1"/>
     </row>
     <row r="155" ht="30.0" customHeight="1">
       <c r="A155" s="1"/>
@@ -4686,7 +4546,6 @@
       <c r="U155" s="1"/>
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
-      <c r="X155" s="1"/>
     </row>
     <row r="156" ht="30.0" customHeight="1">
       <c r="A156" s="1"/>
@@ -4712,7 +4571,6 @@
       <c r="U156" s="1"/>
       <c r="V156" s="1"/>
       <c r="W156" s="1"/>
-      <c r="X156" s="1"/>
     </row>
     <row r="157" ht="30.0" customHeight="1">
       <c r="A157" s="1"/>
@@ -4738,7 +4596,6 @@
       <c r="U157" s="1"/>
       <c r="V157" s="1"/>
       <c r="W157" s="1"/>
-      <c r="X157" s="1"/>
     </row>
     <row r="158" ht="30.0" customHeight="1">
       <c r="A158" s="1"/>
@@ -4764,7 +4621,6 @@
       <c r="U158" s="1"/>
       <c r="V158" s="1"/>
       <c r="W158" s="1"/>
-      <c r="X158" s="1"/>
     </row>
     <row r="159" ht="30.0" customHeight="1">
       <c r="A159" s="1"/>
@@ -4790,7 +4646,6 @@
       <c r="U159" s="1"/>
       <c r="V159" s="1"/>
       <c r="W159" s="1"/>
-      <c r="X159" s="1"/>
     </row>
     <row r="160" ht="30.0" customHeight="1">
       <c r="A160" s="1"/>
@@ -4816,7 +4671,6 @@
       <c r="U160" s="1"/>
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
-      <c r="X160" s="1"/>
     </row>
     <row r="161" ht="30.0" customHeight="1">
       <c r="A161" s="1"/>
@@ -4842,7 +4696,6 @@
       <c r="U161" s="1"/>
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
-      <c r="X161" s="1"/>
     </row>
     <row r="162" ht="30.0" customHeight="1">
       <c r="A162" s="1"/>
@@ -4868,7 +4721,6 @@
       <c r="U162" s="1"/>
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
-      <c r="X162" s="1"/>
     </row>
     <row r="163" ht="30.0" customHeight="1">
       <c r="A163" s="1"/>
@@ -4894,7 +4746,6 @@
       <c r="U163" s="1"/>
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
-      <c r="X163" s="1"/>
     </row>
     <row r="164" ht="30.0" customHeight="1">
       <c r="A164" s="1"/>
@@ -4920,7 +4771,6 @@
       <c r="U164" s="1"/>
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
-      <c r="X164" s="1"/>
     </row>
     <row r="165" ht="30.0" customHeight="1">
       <c r="A165" s="1"/>
@@ -4946,7 +4796,6 @@
       <c r="U165" s="1"/>
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
-      <c r="X165" s="1"/>
     </row>
     <row r="166" ht="30.0" customHeight="1">
       <c r="A166" s="1"/>
@@ -4972,7 +4821,6 @@
       <c r="U166" s="1"/>
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
-      <c r="X166" s="1"/>
     </row>
     <row r="167" ht="30.0" customHeight="1">
       <c r="A167" s="1"/>
@@ -4998,7 +4846,6 @@
       <c r="U167" s="1"/>
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
-      <c r="X167" s="1"/>
     </row>
     <row r="168" ht="30.0" customHeight="1">
       <c r="A168" s="1"/>
@@ -5024,7 +4871,6 @@
       <c r="U168" s="1"/>
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
-      <c r="X168" s="1"/>
     </row>
     <row r="169" ht="30.0" customHeight="1">
       <c r="A169" s="1"/>
@@ -5050,7 +4896,6 @@
       <c r="U169" s="1"/>
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
-      <c r="X169" s="1"/>
     </row>
     <row r="170" ht="30.0" customHeight="1">
       <c r="A170" s="1"/>
@@ -5076,7 +4921,6 @@
       <c r="U170" s="1"/>
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
-      <c r="X170" s="1"/>
     </row>
     <row r="171" ht="30.0" customHeight="1">
       <c r="A171" s="1"/>
@@ -5102,7 +4946,6 @@
       <c r="U171" s="1"/>
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
-      <c r="X171" s="1"/>
     </row>
     <row r="172" ht="30.0" customHeight="1">
       <c r="A172" s="1"/>
@@ -5128,7 +4971,6 @@
       <c r="U172" s="1"/>
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
-      <c r="X172" s="1"/>
     </row>
     <row r="173" ht="30.0" customHeight="1">
       <c r="A173" s="1"/>
@@ -5154,7 +4996,6 @@
       <c r="U173" s="1"/>
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
-      <c r="X173" s="1"/>
     </row>
     <row r="174" ht="30.0" customHeight="1">
       <c r="A174" s="1"/>
@@ -5180,7 +5021,6 @@
       <c r="U174" s="1"/>
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
-      <c r="X174" s="1"/>
     </row>
     <row r="175" ht="30.0" customHeight="1">
       <c r="A175" s="1"/>
@@ -5206,7 +5046,6 @@
       <c r="U175" s="1"/>
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
-      <c r="X175" s="1"/>
     </row>
     <row r="176" ht="30.0" customHeight="1">
       <c r="A176" s="1"/>
@@ -5232,7 +5071,6 @@
       <c r="U176" s="1"/>
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
-      <c r="X176" s="1"/>
     </row>
     <row r="177" ht="30.0" customHeight="1">
       <c r="A177" s="1"/>
@@ -5258,7 +5096,6 @@
       <c r="U177" s="1"/>
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
-      <c r="X177" s="1"/>
     </row>
     <row r="178" ht="30.0" customHeight="1">
       <c r="A178" s="1"/>
@@ -5284,7 +5121,6 @@
       <c r="U178" s="1"/>
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
-      <c r="X178" s="1"/>
     </row>
     <row r="179" ht="30.0" customHeight="1">
       <c r="A179" s="1"/>
@@ -5310,7 +5146,6 @@
       <c r="U179" s="1"/>
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
-      <c r="X179" s="1"/>
     </row>
     <row r="180" ht="30.0" customHeight="1">
       <c r="A180" s="1"/>
@@ -5336,7 +5171,6 @@
       <c r="U180" s="1"/>
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
-      <c r="X180" s="1"/>
     </row>
     <row r="181" ht="30.0" customHeight="1">
       <c r="A181" s="1"/>
@@ -5362,7 +5196,6 @@
       <c r="U181" s="1"/>
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
-      <c r="X181" s="1"/>
     </row>
     <row r="182" ht="30.0" customHeight="1">
       <c r="A182" s="1"/>
@@ -5388,7 +5221,6 @@
       <c r="U182" s="1"/>
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
-      <c r="X182" s="1"/>
     </row>
     <row r="183" ht="30.0" customHeight="1">
       <c r="A183" s="1"/>
@@ -5414,7 +5246,6 @@
       <c r="U183" s="1"/>
       <c r="V183" s="1"/>
       <c r="W183" s="1"/>
-      <c r="X183" s="1"/>
     </row>
     <row r="184" ht="30.0" customHeight="1">
       <c r="A184" s="1"/>
@@ -5440,7 +5271,6 @@
       <c r="U184" s="1"/>
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
-      <c r="X184" s="1"/>
     </row>
     <row r="185" ht="30.0" customHeight="1">
       <c r="A185" s="1"/>
@@ -5466,7 +5296,6 @@
       <c r="U185" s="1"/>
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
-      <c r="X185" s="1"/>
     </row>
     <row r="186" ht="30.0" customHeight="1">
       <c r="A186" s="1"/>
@@ -5492,7 +5321,6 @@
       <c r="U186" s="1"/>
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
-      <c r="X186" s="1"/>
     </row>
     <row r="187" ht="30.0" customHeight="1">
       <c r="A187" s="1"/>
@@ -5518,7 +5346,6 @@
       <c r="U187" s="1"/>
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
-      <c r="X187" s="1"/>
     </row>
     <row r="188" ht="30.0" customHeight="1">
       <c r="A188" s="1"/>
@@ -5544,7 +5371,6 @@
       <c r="U188" s="1"/>
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
-      <c r="X188" s="1"/>
     </row>
     <row r="189" ht="30.0" customHeight="1">
       <c r="A189" s="1"/>
@@ -5570,7 +5396,6 @@
       <c r="U189" s="1"/>
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
-      <c r="X189" s="1"/>
     </row>
     <row r="190" ht="30.0" customHeight="1">
       <c r="A190" s="1"/>
@@ -5596,7 +5421,6 @@
       <c r="U190" s="1"/>
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
-      <c r="X190" s="1"/>
     </row>
     <row r="191" ht="30.0" customHeight="1">
       <c r="A191" s="1"/>
@@ -5622,7 +5446,6 @@
       <c r="U191" s="1"/>
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
-      <c r="X191" s="1"/>
     </row>
     <row r="192" ht="30.0" customHeight="1">
       <c r="A192" s="1"/>
@@ -5648,7 +5471,6 @@
       <c r="U192" s="1"/>
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
-      <c r="X192" s="1"/>
     </row>
     <row r="193" ht="30.0" customHeight="1">
       <c r="A193" s="1"/>
@@ -5674,7 +5496,6 @@
       <c r="U193" s="1"/>
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
-      <c r="X193" s="1"/>
     </row>
     <row r="194" ht="30.0" customHeight="1">
       <c r="A194" s="1"/>
@@ -5700,7 +5521,6 @@
       <c r="U194" s="1"/>
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
-      <c r="X194" s="1"/>
     </row>
     <row r="195" ht="30.0" customHeight="1">
       <c r="A195" s="1"/>
@@ -5726,7 +5546,6 @@
       <c r="U195" s="1"/>
       <c r="V195" s="1"/>
       <c r="W195" s="1"/>
-      <c r="X195" s="1"/>
     </row>
     <row r="196" ht="30.0" customHeight="1">
       <c r="A196" s="1"/>
@@ -5752,7 +5571,6 @@
       <c r="U196" s="1"/>
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
-      <c r="X196" s="1"/>
     </row>
     <row r="197" ht="30.0" customHeight="1">
       <c r="A197" s="1"/>
@@ -5778,7 +5596,6 @@
       <c r="U197" s="1"/>
       <c r="V197" s="1"/>
       <c r="W197" s="1"/>
-      <c r="X197" s="1"/>
     </row>
     <row r="198" ht="30.0" customHeight="1">
       <c r="A198" s="1"/>
@@ -5804,7 +5621,6 @@
       <c r="U198" s="1"/>
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
-      <c r="X198" s="1"/>
     </row>
     <row r="199" ht="30.0" customHeight="1">
       <c r="A199" s="1"/>
@@ -5830,7 +5646,6 @@
       <c r="U199" s="1"/>
       <c r="V199" s="1"/>
       <c r="W199" s="1"/>
-      <c r="X199" s="1"/>
     </row>
     <row r="200" ht="30.0" customHeight="1">
       <c r="A200" s="1"/>
@@ -5856,7 +5671,6 @@
       <c r="U200" s="1"/>
       <c r="V200" s="1"/>
       <c r="W200" s="1"/>
-      <c r="X200" s="1"/>
     </row>
     <row r="201" ht="30.0" customHeight="1">
       <c r="A201" s="1"/>
@@ -5882,7 +5696,6 @@
       <c r="U201" s="1"/>
       <c r="V201" s="1"/>
       <c r="W201" s="1"/>
-      <c r="X201" s="1"/>
     </row>
     <row r="202" ht="30.0" customHeight="1">
       <c r="A202" s="1"/>
@@ -5908,7 +5721,6 @@
       <c r="U202" s="1"/>
       <c r="V202" s="1"/>
       <c r="W202" s="1"/>
-      <c r="X202" s="1"/>
     </row>
     <row r="203" ht="30.0" customHeight="1">
       <c r="A203" s="1"/>
@@ -5934,7 +5746,6 @@
       <c r="U203" s="1"/>
       <c r="V203" s="1"/>
       <c r="W203" s="1"/>
-      <c r="X203" s="1"/>
     </row>
     <row r="204" ht="30.0" customHeight="1">
       <c r="A204" s="1"/>
@@ -5960,7 +5771,6 @@
       <c r="U204" s="1"/>
       <c r="V204" s="1"/>
       <c r="W204" s="1"/>
-      <c r="X204" s="1"/>
     </row>
     <row r="205" ht="30.0" customHeight="1">
       <c r="A205" s="1"/>
@@ -5986,7 +5796,6 @@
       <c r="U205" s="1"/>
       <c r="V205" s="1"/>
       <c r="W205" s="1"/>
-      <c r="X205" s="1"/>
     </row>
     <row r="206" ht="30.0" customHeight="1">
       <c r="A206" s="1"/>
@@ -6012,7 +5821,6 @@
       <c r="U206" s="1"/>
       <c r="V206" s="1"/>
       <c r="W206" s="1"/>
-      <c r="X206" s="1"/>
     </row>
     <row r="207" ht="30.0" customHeight="1">
       <c r="A207" s="1"/>
@@ -6038,7 +5846,6 @@
       <c r="U207" s="1"/>
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
-      <c r="X207" s="1"/>
     </row>
     <row r="208" ht="30.0" customHeight="1">
       <c r="A208" s="1"/>
@@ -6064,7 +5871,6 @@
       <c r="U208" s="1"/>
       <c r="V208" s="1"/>
       <c r="W208" s="1"/>
-      <c r="X208" s="1"/>
     </row>
     <row r="209" ht="30.0" customHeight="1">
       <c r="A209" s="1"/>
@@ -6090,7 +5896,6 @@
       <c r="U209" s="1"/>
       <c r="V209" s="1"/>
       <c r="W209" s="1"/>
-      <c r="X209" s="1"/>
     </row>
     <row r="210" ht="30.0" customHeight="1">
       <c r="A210" s="1"/>
@@ -6116,7 +5921,6 @@
       <c r="U210" s="1"/>
       <c r="V210" s="1"/>
       <c r="W210" s="1"/>
-      <c r="X210" s="1"/>
     </row>
     <row r="211" ht="30.0" customHeight="1">
       <c r="A211" s="1"/>
@@ -6142,7 +5946,6 @@
       <c r="U211" s="1"/>
       <c r="V211" s="1"/>
       <c r="W211" s="1"/>
-      <c r="X211" s="1"/>
     </row>
     <row r="212" ht="30.0" customHeight="1">
       <c r="A212" s="1"/>
@@ -6168,7 +5971,6 @@
       <c r="U212" s="1"/>
       <c r="V212" s="1"/>
       <c r="W212" s="1"/>
-      <c r="X212" s="1"/>
     </row>
     <row r="213" ht="30.0" customHeight="1">
       <c r="A213" s="1"/>
@@ -6194,7 +5996,6 @@
       <c r="U213" s="1"/>
       <c r="V213" s="1"/>
       <c r="W213" s="1"/>
-      <c r="X213" s="1"/>
     </row>
     <row r="214" ht="30.0" customHeight="1">
       <c r="A214" s="1"/>
@@ -6220,7 +6021,6 @@
       <c r="U214" s="1"/>
       <c r="V214" s="1"/>
       <c r="W214" s="1"/>
-      <c r="X214" s="1"/>
     </row>
     <row r="215" ht="30.0" customHeight="1">
       <c r="A215" s="1"/>
@@ -6246,7 +6046,6 @@
       <c r="U215" s="1"/>
       <c r="V215" s="1"/>
       <c r="W215" s="1"/>
-      <c r="X215" s="1"/>
     </row>
     <row r="216" ht="30.0" customHeight="1">
       <c r="A216" s="1"/>
@@ -6272,7 +6071,6 @@
       <c r="U216" s="1"/>
       <c r="V216" s="1"/>
       <c r="W216" s="1"/>
-      <c r="X216" s="1"/>
     </row>
     <row r="217" ht="30.0" customHeight="1">
       <c r="A217" s="1"/>
@@ -6298,7 +6096,6 @@
       <c r="U217" s="1"/>
       <c r="V217" s="1"/>
       <c r="W217" s="1"/>
-      <c r="X217" s="1"/>
     </row>
     <row r="218" ht="30.0" customHeight="1">
       <c r="A218" s="1"/>
@@ -6324,7 +6121,6 @@
       <c r="U218" s="1"/>
       <c r="V218" s="1"/>
       <c r="W218" s="1"/>
-      <c r="X218" s="1"/>
     </row>
     <row r="219" ht="30.0" customHeight="1">
       <c r="A219" s="1"/>
@@ -6350,7 +6146,6 @@
       <c r="U219" s="1"/>
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
-      <c r="X219" s="1"/>
     </row>
     <row r="220" ht="30.0" customHeight="1">
       <c r="A220" s="1"/>
@@ -6376,7 +6171,6 @@
       <c r="U220" s="1"/>
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
-      <c r="X220" s="1"/>
     </row>
     <row r="221" ht="30.0" customHeight="1">
       <c r="A221" s="1"/>
@@ -6402,7 +6196,6 @@
       <c r="U221" s="1"/>
       <c r="V221" s="1"/>
       <c r="W221" s="1"/>
-      <c r="X221" s="1"/>
     </row>
     <row r="222" ht="30.0" customHeight="1">
       <c r="A222" s="1"/>
@@ -6428,7 +6221,6 @@
       <c r="U222" s="1"/>
       <c r="V222" s="1"/>
       <c r="W222" s="1"/>
-      <c r="X222" s="1"/>
     </row>
     <row r="223" ht="30.0" customHeight="1">
       <c r="A223" s="1"/>
@@ -6454,7 +6246,6 @@
       <c r="U223" s="1"/>
       <c r="V223" s="1"/>
       <c r="W223" s="1"/>
-      <c r="X223" s="1"/>
     </row>
     <row r="224" ht="30.0" customHeight="1">
       <c r="A224" s="1"/>
@@ -6480,7 +6271,6 @@
       <c r="U224" s="1"/>
       <c r="V224" s="1"/>
       <c r="W224" s="1"/>
-      <c r="X224" s="1"/>
     </row>
     <row r="225" ht="30.0" customHeight="1">
       <c r="A225" s="1"/>
@@ -6506,7 +6296,6 @@
       <c r="U225" s="1"/>
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
-      <c r="X225" s="1"/>
     </row>
     <row r="226" ht="30.0" customHeight="1">
       <c r="A226" s="1"/>
@@ -6532,60 +6321,9 @@
       <c r="U226" s="1"/>
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
-      <c r="X226" s="1"/>
-    </row>
-    <row r="227" ht="30.0" customHeight="1">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
-      <c r="I227" s="1"/>
-      <c r="J227" s="1"/>
-      <c r="K227" s="1"/>
-      <c r="L227" s="1"/>
-      <c r="M227" s="1"/>
-      <c r="N227" s="1"/>
-      <c r="O227" s="1"/>
-      <c r="P227" s="1"/>
-      <c r="Q227" s="1"/>
-      <c r="R227" s="1"/>
-      <c r="S227" s="1"/>
-      <c r="T227" s="1"/>
-      <c r="U227" s="1"/>
-      <c r="V227" s="1"/>
-      <c r="W227" s="1"/>
-      <c r="X227" s="1"/>
-    </row>
-    <row r="228" ht="30.0" customHeight="1">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
-      <c r="J228" s="1"/>
-      <c r="K228" s="1"/>
-      <c r="L228" s="1"/>
-      <c r="M228" s="1"/>
-      <c r="N228" s="1"/>
-      <c r="O228" s="1"/>
-      <c r="P228" s="1"/>
-      <c r="Q228" s="1"/>
-      <c r="R228" s="1"/>
-      <c r="S228" s="1"/>
-      <c r="T228" s="1"/>
-      <c r="U228" s="1"/>
-      <c r="V228" s="1"/>
-      <c r="W228" s="1"/>
-      <c r="X228" s="1"/>
-    </row>
+    </row>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
     <row r="229" ht="15.75" customHeight="1"/>
     <row r="230" ht="15.75" customHeight="1"/>
     <row r="231" ht="15.75" customHeight="1"/>
@@ -7340,14 +7078,12 @@
     <row r="980" ht="15.75" customHeight="1"/>
     <row r="981" ht="15.75" customHeight="1"/>
     <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C8:F8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I6"/>
+    <hyperlink r:id="rId1" ref="H7"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.748611111111111" footer="0.0" header="0.0" left="0.236111111111111" right="0.236111111111111" top="0.748611111111111"/>

--- a/excel_python/total_report.xlsx
+++ b/excel_python/total_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Monat</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Lokführer</t>
   </si>
   <si>
+    <t>Stundenluhn</t>
+  </si>
+  <si>
     <t>Gesamttage</t>
   </si>
   <si>
@@ -46,25 +49,31 @@
     <t>Überstunden</t>
   </si>
   <si>
-    <t>Nachtzuschlag 25%</t>
+    <t>NZ 25%</t>
   </si>
   <si>
-    <t>Nachtzuschlag 40%</t>
+    <t>NZ 40%</t>
   </si>
   <si>
-    <t>Sonntagszuschläge</t>
+    <t>SZ</t>
   </si>
   <si>
-    <t>Feiertagszuschläge</t>
+    <t>FZ</t>
   </si>
   <si>
-    <t>Gastfahrt Stunden</t>
+    <t>Gastfahrt St.</t>
   </si>
   <si>
     <t xml:space="preserve">Schichtzulage		</t>
   </si>
   <si>
     <t>Verpflegung</t>
+  </si>
+  <si>
+    <t>Urlaub</t>
+  </si>
+  <si>
+    <t>Krank</t>
   </si>
   <si>
     <t>Bonus Zahlungen</t>
@@ -365,12 +374,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1476375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2933700" cy="1657350"/>
+    <xdr:ext cx="3333750" cy="1914525"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr descr="image1.png" id="0" name="image1.png" title="Resim"/>
@@ -629,18 +638,19 @@
     <col customWidth="1" min="1" max="1" width="2.71"/>
     <col customWidth="1" min="2" max="2" width="5.43"/>
     <col customWidth="1" min="3" max="3" width="23.29"/>
-    <col customWidth="1" min="4" max="4" width="10.57"/>
-    <col customWidth="1" min="5" max="5" width="13.71"/>
-    <col customWidth="1" min="6" max="6" width="12.29"/>
-    <col customWidth="1" min="7" max="7" width="17.86"/>
-    <col customWidth="1" min="8" max="8" width="16.14"/>
-    <col customWidth="1" min="9" max="9" width="17.29"/>
-    <col customWidth="1" min="10" max="11" width="15.86"/>
-    <col customWidth="1" min="12" max="12" width="15.57"/>
-    <col customWidth="1" min="13" max="13" width="11.86"/>
-    <col customWidth="1" min="14" max="14" width="10.71"/>
-    <col customWidth="1" min="15" max="15" width="14.71"/>
-    <col customWidth="1" min="16" max="23" width="9.14"/>
+    <col customWidth="1" min="4" max="4" width="11.14"/>
+    <col customWidth="1" min="5" max="6" width="13.71"/>
+    <col customWidth="1" min="7" max="7" width="12.14"/>
+    <col customWidth="1" min="8" max="8" width="9.71"/>
+    <col customWidth="1" min="9" max="9" width="8.43"/>
+    <col customWidth="1" min="10" max="10" width="8.29"/>
+    <col customWidth="1" min="11" max="11" width="9.71"/>
+    <col customWidth="1" min="12" max="13" width="11.86"/>
+    <col customWidth="1" min="14" max="14" width="12.0"/>
+    <col customWidth="1" min="15" max="15" width="11.57"/>
+    <col customWidth="1" min="16" max="16" width="8.71"/>
+    <col customWidth="1" min="17" max="17" width="9.0"/>
+    <col customWidth="1" min="18" max="24" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -667,6 +677,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
     </row>
     <row r="2" ht="36.75" customHeight="1">
       <c r="A2" s="1"/>
@@ -692,6 +703,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
     </row>
     <row r="3" ht="18.0" customHeight="1">
       <c r="A3" s="1"/>
@@ -715,6 +727,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
     </row>
     <row r="4" ht="18.0" customHeight="1">
       <c r="A4" s="1"/>
@@ -726,12 +739,11 @@
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -743,6 +755,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
     </row>
     <row r="5" ht="18.0" customHeight="1">
       <c r="A5" s="1"/>
@@ -752,11 +765,10 @@
       <c r="E5" s="18"/>
       <c r="F5" s="19"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -768,6 +780,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
     </row>
     <row r="6" ht="18.0" customHeight="1">
       <c r="A6" s="1"/>
@@ -777,11 +790,10 @@
       <c r="E6" s="23"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -793,6 +805,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
     </row>
     <row r="7" ht="18.0" customHeight="1">
       <c r="A7" s="1"/>
@@ -802,11 +815,10 @@
       <c r="E7" s="23"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="24" t="s">
+      <c r="I7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -818,6 +830,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
     </row>
     <row r="8" ht="18.0" customHeight="1">
       <c r="A8" s="1"/>
@@ -843,6 +856,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
     </row>
     <row r="9" ht="28.5" customHeight="1">
       <c r="A9" s="1"/>
@@ -888,14 +902,21 @@
       <c r="O9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="P9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>22</v>
+      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
@@ -921,6 +942,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
@@ -946,6 +968,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
@@ -971,6 +994,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
@@ -996,6 +1020,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
@@ -1021,6 +1046,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="1"/>
@@ -1046,6 +1072,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
@@ -1071,6 +1098,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
@@ -1096,6 +1124,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
@@ -1121,6 +1150,7 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
     </row>
     <row r="19" ht="30.0" customHeight="1">
       <c r="A19" s="1"/>
@@ -1146,6 +1176,7 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
     </row>
     <row r="20" ht="30.0" customHeight="1">
       <c r="A20" s="1"/>
@@ -1171,6 +1202,7 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
     </row>
     <row r="21" ht="30.0" customHeight="1">
       <c r="A21" s="1"/>
@@ -1196,6 +1228,7 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
     </row>
     <row r="22" ht="30.0" customHeight="1">
       <c r="A22" s="1"/>
@@ -1221,6 +1254,7 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
     </row>
     <row r="23" ht="30.0" customHeight="1">
       <c r="A23" s="1"/>
@@ -1246,6 +1280,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
     </row>
     <row r="24" ht="30.0" customHeight="1">
       <c r="A24" s="1"/>
@@ -1271,6 +1306,7 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
     </row>
     <row r="25" ht="30.0" customHeight="1">
       <c r="A25" s="1"/>
@@ -1296,6 +1332,7 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
     </row>
     <row r="26" ht="30.0" customHeight="1">
       <c r="A26" s="1"/>
@@ -1321,6 +1358,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
     </row>
     <row r="27" ht="30.0" customHeight="1">
       <c r="A27" s="1"/>
@@ -1346,6 +1384,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
     </row>
     <row r="28" ht="30.0" customHeight="1">
       <c r="A28" s="1"/>
@@ -1371,6 +1410,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
     </row>
     <row r="29" ht="30.0" customHeight="1">
       <c r="A29" s="1"/>
@@ -1396,6 +1436,7 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
     </row>
     <row r="30" ht="30.0" customHeight="1">
       <c r="A30" s="1"/>
@@ -1421,6 +1462,7 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
     </row>
     <row r="31" ht="30.0" customHeight="1">
       <c r="A31" s="1"/>
@@ -1446,6 +1488,7 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
     </row>
     <row r="32" ht="30.0" customHeight="1">
       <c r="A32" s="1"/>
@@ -1471,6 +1514,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
     </row>
     <row r="33" ht="30.0" customHeight="1">
       <c r="A33" s="1"/>
@@ -1496,6 +1540,7 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
     </row>
     <row r="34" ht="30.0" customHeight="1">
       <c r="A34" s="1"/>
@@ -1521,6 +1566,7 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
     </row>
     <row r="35" ht="30.0" customHeight="1">
       <c r="A35" s="1"/>
@@ -1546,6 +1592,7 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
     </row>
     <row r="36" ht="30.0" customHeight="1">
       <c r="A36" s="1"/>
@@ -1571,6 +1618,7 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
     </row>
     <row r="37" ht="30.0" customHeight="1">
       <c r="A37" s="1"/>
@@ -1596,6 +1644,7 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
     </row>
     <row r="38" ht="30.0" customHeight="1">
       <c r="A38" s="1"/>
@@ -1621,6 +1670,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
     </row>
     <row r="39" ht="30.0" customHeight="1">
       <c r="A39" s="1"/>
@@ -1646,6 +1696,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
     </row>
     <row r="40" ht="30.0" customHeight="1">
       <c r="A40" s="1"/>
@@ -1671,6 +1722,7 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
     </row>
     <row r="41" ht="30.0" customHeight="1">
       <c r="A41" s="1"/>
@@ -1696,6 +1748,7 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
     </row>
     <row r="42" ht="30.0" customHeight="1">
       <c r="A42" s="1"/>
@@ -1721,6 +1774,7 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
     </row>
     <row r="43" ht="30.0" customHeight="1">
       <c r="A43" s="1"/>
@@ -1746,6 +1800,7 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
     </row>
     <row r="44" ht="30.0" customHeight="1">
       <c r="A44" s="1"/>
@@ -1771,6 +1826,7 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
     </row>
     <row r="45" ht="30.0" customHeight="1">
       <c r="A45" s="1"/>
@@ -1796,6 +1852,7 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
     </row>
     <row r="46" ht="30.0" customHeight="1">
       <c r="A46" s="1"/>
@@ -1821,6 +1878,7 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
     </row>
     <row r="47" ht="30.0" customHeight="1">
       <c r="A47" s="1"/>
@@ -1846,6 +1904,7 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
     </row>
     <row r="48" ht="30.0" customHeight="1">
       <c r="A48" s="1"/>
@@ -1871,6 +1930,7 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
     </row>
     <row r="49" ht="30.0" customHeight="1">
       <c r="A49" s="1"/>
@@ -1896,6 +1956,7 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
     </row>
     <row r="50" ht="30.0" customHeight="1">
       <c r="A50" s="1"/>
@@ -1921,6 +1982,7 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
     </row>
     <row r="51" ht="30.0" customHeight="1">
       <c r="A51" s="1"/>
@@ -1946,6 +2008,7 @@
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
     </row>
     <row r="52" ht="30.0" customHeight="1">
       <c r="A52" s="1"/>
@@ -1971,6 +2034,7 @@
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
     </row>
     <row r="53" ht="30.0" customHeight="1">
       <c r="A53" s="1"/>
@@ -1996,6 +2060,7 @@
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
     </row>
     <row r="54" ht="30.0" customHeight="1">
       <c r="A54" s="1"/>
@@ -2021,6 +2086,7 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
     </row>
     <row r="55" ht="30.0" customHeight="1">
       <c r="A55" s="1"/>
@@ -2046,6 +2112,7 @@
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
     </row>
     <row r="56" ht="30.0" customHeight="1">
       <c r="A56" s="1"/>
@@ -2071,6 +2138,7 @@
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
     </row>
     <row r="57" ht="30.0" customHeight="1">
       <c r="A57" s="1"/>
@@ -2096,6 +2164,7 @@
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
     </row>
     <row r="58" ht="30.0" customHeight="1">
       <c r="A58" s="1"/>
@@ -2121,6 +2190,7 @@
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
     </row>
     <row r="59" ht="30.0" customHeight="1">
       <c r="A59" s="1"/>
@@ -2146,6 +2216,7 @@
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
     </row>
     <row r="60" ht="30.0" customHeight="1">
       <c r="A60" s="1"/>
@@ -2171,6 +2242,7 @@
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
     </row>
     <row r="61" ht="30.0" customHeight="1">
       <c r="A61" s="1"/>
@@ -2196,6 +2268,7 @@
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
     </row>
     <row r="62" ht="30.0" customHeight="1">
       <c r="A62" s="1"/>
@@ -2221,6 +2294,7 @@
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
     </row>
     <row r="63" ht="30.0" customHeight="1">
       <c r="A63" s="1"/>
@@ -2246,6 +2320,7 @@
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
     </row>
     <row r="64" ht="30.0" customHeight="1">
       <c r="A64" s="1"/>
@@ -2271,6 +2346,7 @@
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
     </row>
     <row r="65" ht="30.0" customHeight="1">
       <c r="A65" s="1"/>
@@ -2296,6 +2372,7 @@
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
     </row>
     <row r="66" ht="30.0" customHeight="1">
       <c r="A66" s="1"/>
@@ -2321,6 +2398,7 @@
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
     </row>
     <row r="67" ht="30.0" customHeight="1">
       <c r="A67" s="1"/>
@@ -2346,6 +2424,7 @@
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
     </row>
     <row r="68" ht="30.0" customHeight="1">
       <c r="A68" s="1"/>
@@ -2371,6 +2450,7 @@
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
     </row>
     <row r="69" ht="30.0" customHeight="1">
       <c r="A69" s="1"/>
@@ -2396,6 +2476,7 @@
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
     </row>
     <row r="70" ht="30.0" customHeight="1">
       <c r="A70" s="1"/>
@@ -2421,6 +2502,7 @@
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
     </row>
     <row r="71" ht="30.0" customHeight="1">
       <c r="A71" s="1"/>
@@ -2446,6 +2528,7 @@
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
     </row>
     <row r="72" ht="30.0" customHeight="1">
       <c r="A72" s="1"/>
@@ -2471,6 +2554,7 @@
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
     </row>
     <row r="73" ht="30.0" customHeight="1">
       <c r="A73" s="1"/>
@@ -2496,6 +2580,7 @@
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
     </row>
     <row r="74" ht="30.0" customHeight="1">
       <c r="A74" s="1"/>
@@ -2521,6 +2606,7 @@
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
     </row>
     <row r="75" ht="30.0" customHeight="1">
       <c r="A75" s="1"/>
@@ -2546,6 +2632,7 @@
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
     </row>
     <row r="76" ht="30.0" customHeight="1">
       <c r="A76" s="1"/>
@@ -2571,6 +2658,7 @@
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
     </row>
     <row r="77" ht="30.0" customHeight="1">
       <c r="A77" s="1"/>
@@ -2596,6 +2684,7 @@
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
     </row>
     <row r="78" ht="30.0" customHeight="1">
       <c r="A78" s="1"/>
@@ -2621,6 +2710,7 @@
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
     </row>
     <row r="79" ht="30.0" customHeight="1">
       <c r="A79" s="1"/>
@@ -2646,6 +2736,7 @@
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
     </row>
     <row r="80" ht="30.0" customHeight="1">
       <c r="A80" s="1"/>
@@ -2671,6 +2762,7 @@
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
     </row>
     <row r="81" ht="30.0" customHeight="1">
       <c r="A81" s="1"/>
@@ -2696,6 +2788,7 @@
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
     </row>
     <row r="82" ht="30.0" customHeight="1">
       <c r="A82" s="1"/>
@@ -2721,6 +2814,7 @@
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
     </row>
     <row r="83" ht="30.0" customHeight="1">
       <c r="A83" s="1"/>
@@ -2746,6 +2840,7 @@
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
     </row>
     <row r="84" ht="30.0" customHeight="1">
       <c r="A84" s="1"/>
@@ -2771,6 +2866,7 @@
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
     </row>
     <row r="85" ht="30.0" customHeight="1">
       <c r="A85" s="1"/>
@@ -2796,6 +2892,7 @@
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
     </row>
     <row r="86" ht="30.0" customHeight="1">
       <c r="A86" s="1"/>
@@ -2821,6 +2918,7 @@
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
     </row>
     <row r="87" ht="30.0" customHeight="1">
       <c r="A87" s="1"/>
@@ -2846,6 +2944,7 @@
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
     </row>
     <row r="88" ht="30.0" customHeight="1">
       <c r="A88" s="1"/>
@@ -2871,6 +2970,7 @@
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
     </row>
     <row r="89" ht="30.0" customHeight="1">
       <c r="A89" s="1"/>
@@ -2896,6 +2996,7 @@
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
     </row>
     <row r="90" ht="30.0" customHeight="1">
       <c r="A90" s="1"/>
@@ -2921,6 +3022,7 @@
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
     </row>
     <row r="91" ht="30.0" customHeight="1">
       <c r="A91" s="1"/>
@@ -2946,6 +3048,7 @@
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
     </row>
     <row r="92" ht="30.0" customHeight="1">
       <c r="A92" s="1"/>
@@ -2971,6 +3074,7 @@
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
     </row>
     <row r="93" ht="30.0" customHeight="1">
       <c r="A93" s="1"/>
@@ -2996,6 +3100,7 @@
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
     </row>
     <row r="94" ht="30.0" customHeight="1">
       <c r="A94" s="1"/>
@@ -3021,6 +3126,7 @@
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
     </row>
     <row r="95" ht="30.0" customHeight="1">
       <c r="A95" s="1"/>
@@ -3046,6 +3152,7 @@
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
     </row>
     <row r="96" ht="30.0" customHeight="1">
       <c r="A96" s="1"/>
@@ -3071,6 +3178,7 @@
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
     </row>
     <row r="97" ht="30.0" customHeight="1">
       <c r="A97" s="1"/>
@@ -3096,6 +3204,7 @@
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
     </row>
     <row r="98" ht="30.0" customHeight="1">
       <c r="A98" s="1"/>
@@ -3121,6 +3230,7 @@
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
     </row>
     <row r="99" ht="30.0" customHeight="1">
       <c r="A99" s="1"/>
@@ -3146,6 +3256,7 @@
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
     </row>
     <row r="100" ht="30.0" customHeight="1">
       <c r="A100" s="1"/>
@@ -3171,6 +3282,7 @@
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
     </row>
     <row r="101" ht="30.0" customHeight="1">
       <c r="A101" s="1"/>
@@ -3196,6 +3308,7 @@
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
     </row>
     <row r="102" ht="30.0" customHeight="1">
       <c r="A102" s="1"/>
@@ -3221,6 +3334,7 @@
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
     </row>
     <row r="103" ht="30.0" customHeight="1">
       <c r="A103" s="1"/>
@@ -3246,6 +3360,7 @@
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
     </row>
     <row r="104" ht="30.0" customHeight="1">
       <c r="A104" s="1"/>
@@ -3271,6 +3386,7 @@
       <c r="U104" s="1"/>
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
     </row>
     <row r="105" ht="30.0" customHeight="1">
       <c r="A105" s="1"/>
@@ -3296,6 +3412,7 @@
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
     </row>
     <row r="106" ht="30.0" customHeight="1">
       <c r="A106" s="1"/>
@@ -3321,6 +3438,7 @@
       <c r="U106" s="1"/>
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
     </row>
     <row r="107" ht="30.0" customHeight="1">
       <c r="A107" s="1"/>
@@ -3346,6 +3464,7 @@
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
     </row>
     <row r="108" ht="30.0" customHeight="1">
       <c r="A108" s="1"/>
@@ -3371,6 +3490,7 @@
       <c r="U108" s="1"/>
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
     </row>
     <row r="109" ht="30.0" customHeight="1">
       <c r="A109" s="1"/>
@@ -3396,6 +3516,7 @@
       <c r="U109" s="1"/>
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
     </row>
     <row r="110" ht="30.0" customHeight="1">
       <c r="A110" s="1"/>
@@ -3421,6 +3542,7 @@
       <c r="U110" s="1"/>
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
     </row>
     <row r="111" ht="30.0" customHeight="1">
       <c r="A111" s="1"/>
@@ -3446,6 +3568,7 @@
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
     </row>
     <row r="112" ht="30.0" customHeight="1">
       <c r="A112" s="1"/>
@@ -3471,6 +3594,7 @@
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
     </row>
     <row r="113" ht="30.0" customHeight="1">
       <c r="A113" s="1"/>
@@ -3496,6 +3620,7 @@
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
     </row>
     <row r="114" ht="30.0" customHeight="1">
       <c r="A114" s="1"/>
@@ -3521,6 +3646,7 @@
       <c r="U114" s="1"/>
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
     </row>
     <row r="115" ht="30.0" customHeight="1">
       <c r="A115" s="1"/>
@@ -3546,6 +3672,7 @@
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
     </row>
     <row r="116" ht="30.0" customHeight="1">
       <c r="A116" s="1"/>
@@ -3571,6 +3698,7 @@
       <c r="U116" s="1"/>
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
     </row>
     <row r="117" ht="30.0" customHeight="1">
       <c r="A117" s="1"/>
@@ -3596,6 +3724,7 @@
       <c r="U117" s="1"/>
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
     </row>
     <row r="118" ht="30.0" customHeight="1">
       <c r="A118" s="1"/>
@@ -3621,6 +3750,7 @@
       <c r="U118" s="1"/>
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
     </row>
     <row r="119" ht="30.0" customHeight="1">
       <c r="A119" s="1"/>
@@ -3646,6 +3776,7 @@
       <c r="U119" s="1"/>
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
     </row>
     <row r="120" ht="30.0" customHeight="1">
       <c r="A120" s="1"/>
@@ -3671,6 +3802,7 @@
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
     </row>
     <row r="121" ht="30.0" customHeight="1">
       <c r="A121" s="1"/>
@@ -3696,6 +3828,7 @@
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
+      <c r="X121" s="1"/>
     </row>
     <row r="122" ht="30.0" customHeight="1">
       <c r="A122" s="1"/>
@@ -3721,6 +3854,7 @@
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
+      <c r="X122" s="1"/>
     </row>
     <row r="123" ht="30.0" customHeight="1">
       <c r="A123" s="1"/>
@@ -3746,6 +3880,7 @@
       <c r="U123" s="1"/>
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
+      <c r="X123" s="1"/>
     </row>
     <row r="124" ht="30.0" customHeight="1">
       <c r="A124" s="1"/>
@@ -3771,6 +3906,7 @@
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
+      <c r="X124" s="1"/>
     </row>
     <row r="125" ht="30.0" customHeight="1">
       <c r="A125" s="1"/>
@@ -3796,6 +3932,7 @@
       <c r="U125" s="1"/>
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
+      <c r="X125" s="1"/>
     </row>
     <row r="126" ht="30.0" customHeight="1">
       <c r="A126" s="1"/>
@@ -3821,6 +3958,7 @@
       <c r="U126" s="1"/>
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
+      <c r="X126" s="1"/>
     </row>
     <row r="127" ht="30.0" customHeight="1">
       <c r="A127" s="1"/>
@@ -3846,6 +3984,7 @@
       <c r="U127" s="1"/>
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
+      <c r="X127" s="1"/>
     </row>
     <row r="128" ht="30.0" customHeight="1">
       <c r="A128" s="1"/>
@@ -3871,6 +4010,7 @@
       <c r="U128" s="1"/>
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
+      <c r="X128" s="1"/>
     </row>
     <row r="129" ht="30.0" customHeight="1">
       <c r="A129" s="1"/>
@@ -3896,6 +4036,7 @@
       <c r="U129" s="1"/>
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
+      <c r="X129" s="1"/>
     </row>
     <row r="130" ht="30.0" customHeight="1">
       <c r="A130" s="1"/>
@@ -3921,6 +4062,7 @@
       <c r="U130" s="1"/>
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
+      <c r="X130" s="1"/>
     </row>
     <row r="131" ht="30.0" customHeight="1">
       <c r="A131" s="1"/>
@@ -3946,6 +4088,7 @@
       <c r="U131" s="1"/>
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
+      <c r="X131" s="1"/>
     </row>
     <row r="132" ht="30.0" customHeight="1">
       <c r="A132" s="1"/>
@@ -3971,6 +4114,7 @@
       <c r="U132" s="1"/>
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
+      <c r="X132" s="1"/>
     </row>
     <row r="133" ht="30.0" customHeight="1">
       <c r="A133" s="1"/>
@@ -3996,6 +4140,7 @@
       <c r="U133" s="1"/>
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
+      <c r="X133" s="1"/>
     </row>
     <row r="134" ht="30.0" customHeight="1">
       <c r="A134" s="1"/>
@@ -4021,6 +4166,7 @@
       <c r="U134" s="1"/>
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
+      <c r="X134" s="1"/>
     </row>
     <row r="135" ht="30.0" customHeight="1">
       <c r="A135" s="1"/>
@@ -4046,6 +4192,7 @@
       <c r="U135" s="1"/>
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
+      <c r="X135" s="1"/>
     </row>
     <row r="136" ht="30.0" customHeight="1">
       <c r="A136" s="1"/>
@@ -4071,6 +4218,7 @@
       <c r="U136" s="1"/>
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
+      <c r="X136" s="1"/>
     </row>
     <row r="137" ht="30.0" customHeight="1">
       <c r="A137" s="1"/>
@@ -4096,6 +4244,7 @@
       <c r="U137" s="1"/>
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
+      <c r="X137" s="1"/>
     </row>
     <row r="138" ht="30.0" customHeight="1">
       <c r="A138" s="1"/>
@@ -4121,6 +4270,7 @@
       <c r="U138" s="1"/>
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
+      <c r="X138" s="1"/>
     </row>
     <row r="139" ht="30.0" customHeight="1">
       <c r="A139" s="1"/>
@@ -4146,6 +4296,7 @@
       <c r="U139" s="1"/>
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
+      <c r="X139" s="1"/>
     </row>
     <row r="140" ht="30.0" customHeight="1">
       <c r="A140" s="1"/>
@@ -4171,6 +4322,7 @@
       <c r="U140" s="1"/>
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
+      <c r="X140" s="1"/>
     </row>
     <row r="141" ht="30.0" customHeight="1">
       <c r="A141" s="1"/>
@@ -4196,6 +4348,7 @@
       <c r="U141" s="1"/>
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
+      <c r="X141" s="1"/>
     </row>
     <row r="142" ht="30.0" customHeight="1">
       <c r="A142" s="1"/>
@@ -4221,6 +4374,7 @@
       <c r="U142" s="1"/>
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
+      <c r="X142" s="1"/>
     </row>
     <row r="143" ht="30.0" customHeight="1">
       <c r="A143" s="1"/>
@@ -4246,6 +4400,7 @@
       <c r="U143" s="1"/>
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
+      <c r="X143" s="1"/>
     </row>
     <row r="144" ht="30.0" customHeight="1">
       <c r="A144" s="1"/>
@@ -4271,6 +4426,7 @@
       <c r="U144" s="1"/>
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
+      <c r="X144" s="1"/>
     </row>
     <row r="145" ht="30.0" customHeight="1">
       <c r="A145" s="1"/>
@@ -4296,6 +4452,7 @@
       <c r="U145" s="1"/>
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
+      <c r="X145" s="1"/>
     </row>
     <row r="146" ht="30.0" customHeight="1">
       <c r="A146" s="1"/>
@@ -4321,6 +4478,7 @@
       <c r="U146" s="1"/>
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
+      <c r="X146" s="1"/>
     </row>
     <row r="147" ht="30.0" customHeight="1">
       <c r="A147" s="1"/>
@@ -4346,6 +4504,7 @@
       <c r="U147" s="1"/>
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
     </row>
     <row r="148" ht="30.0" customHeight="1">
       <c r="A148" s="1"/>
@@ -4371,6 +4530,7 @@
       <c r="U148" s="1"/>
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
+      <c r="X148" s="1"/>
     </row>
     <row r="149" ht="30.0" customHeight="1">
       <c r="A149" s="1"/>
@@ -4396,6 +4556,7 @@
       <c r="U149" s="1"/>
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
+      <c r="X149" s="1"/>
     </row>
     <row r="150" ht="30.0" customHeight="1">
       <c r="A150" s="1"/>
@@ -4421,6 +4582,7 @@
       <c r="U150" s="1"/>
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
+      <c r="X150" s="1"/>
     </row>
     <row r="151" ht="30.0" customHeight="1">
       <c r="A151" s="1"/>
@@ -4446,6 +4608,7 @@
       <c r="U151" s="1"/>
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
+      <c r="X151" s="1"/>
     </row>
     <row r="152" ht="30.0" customHeight="1">
       <c r="A152" s="1"/>
@@ -4471,6 +4634,7 @@
       <c r="U152" s="1"/>
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
+      <c r="X152" s="1"/>
     </row>
     <row r="153" ht="30.0" customHeight="1">
       <c r="A153" s="1"/>
@@ -4496,6 +4660,7 @@
       <c r="U153" s="1"/>
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
+      <c r="X153" s="1"/>
     </row>
     <row r="154" ht="30.0" customHeight="1">
       <c r="A154" s="1"/>
@@ -4521,6 +4686,7 @@
       <c r="U154" s="1"/>
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
+      <c r="X154" s="1"/>
     </row>
     <row r="155" ht="30.0" customHeight="1">
       <c r="A155" s="1"/>
@@ -4546,6 +4712,7 @@
       <c r="U155" s="1"/>
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
+      <c r="X155" s="1"/>
     </row>
     <row r="156" ht="30.0" customHeight="1">
       <c r="A156" s="1"/>
@@ -4571,6 +4738,7 @@
       <c r="U156" s="1"/>
       <c r="V156" s="1"/>
       <c r="W156" s="1"/>
+      <c r="X156" s="1"/>
     </row>
     <row r="157" ht="30.0" customHeight="1">
       <c r="A157" s="1"/>
@@ -4596,6 +4764,7 @@
       <c r="U157" s="1"/>
       <c r="V157" s="1"/>
       <c r="W157" s="1"/>
+      <c r="X157" s="1"/>
     </row>
     <row r="158" ht="30.0" customHeight="1">
       <c r="A158" s="1"/>
@@ -4621,6 +4790,7 @@
       <c r="U158" s="1"/>
       <c r="V158" s="1"/>
       <c r="W158" s="1"/>
+      <c r="X158" s="1"/>
     </row>
     <row r="159" ht="30.0" customHeight="1">
       <c r="A159" s="1"/>
@@ -4646,6 +4816,7 @@
       <c r="U159" s="1"/>
       <c r="V159" s="1"/>
       <c r="W159" s="1"/>
+      <c r="X159" s="1"/>
     </row>
     <row r="160" ht="30.0" customHeight="1">
       <c r="A160" s="1"/>
@@ -4671,6 +4842,7 @@
       <c r="U160" s="1"/>
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
+      <c r="X160" s="1"/>
     </row>
     <row r="161" ht="30.0" customHeight="1">
       <c r="A161" s="1"/>
@@ -4696,6 +4868,7 @@
       <c r="U161" s="1"/>
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
+      <c r="X161" s="1"/>
     </row>
     <row r="162" ht="30.0" customHeight="1">
       <c r="A162" s="1"/>
@@ -4721,6 +4894,7 @@
       <c r="U162" s="1"/>
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
+      <c r="X162" s="1"/>
     </row>
     <row r="163" ht="30.0" customHeight="1">
       <c r="A163" s="1"/>
@@ -4746,6 +4920,7 @@
       <c r="U163" s="1"/>
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
+      <c r="X163" s="1"/>
     </row>
     <row r="164" ht="30.0" customHeight="1">
       <c r="A164" s="1"/>
@@ -4771,6 +4946,7 @@
       <c r="U164" s="1"/>
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
+      <c r="X164" s="1"/>
     </row>
     <row r="165" ht="30.0" customHeight="1">
       <c r="A165" s="1"/>
@@ -4796,6 +4972,7 @@
       <c r="U165" s="1"/>
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
+      <c r="X165" s="1"/>
     </row>
     <row r="166" ht="30.0" customHeight="1">
       <c r="A166" s="1"/>
@@ -4821,6 +4998,7 @@
       <c r="U166" s="1"/>
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
+      <c r="X166" s="1"/>
     </row>
     <row r="167" ht="30.0" customHeight="1">
       <c r="A167" s="1"/>
@@ -4846,6 +5024,7 @@
       <c r="U167" s="1"/>
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
+      <c r="X167" s="1"/>
     </row>
     <row r="168" ht="30.0" customHeight="1">
       <c r="A168" s="1"/>
@@ -4871,6 +5050,7 @@
       <c r="U168" s="1"/>
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
+      <c r="X168" s="1"/>
     </row>
     <row r="169" ht="30.0" customHeight="1">
       <c r="A169" s="1"/>
@@ -4896,6 +5076,7 @@
       <c r="U169" s="1"/>
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
+      <c r="X169" s="1"/>
     </row>
     <row r="170" ht="30.0" customHeight="1">
       <c r="A170" s="1"/>
@@ -4921,6 +5102,7 @@
       <c r="U170" s="1"/>
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
+      <c r="X170" s="1"/>
     </row>
     <row r="171" ht="30.0" customHeight="1">
       <c r="A171" s="1"/>
@@ -4946,6 +5128,7 @@
       <c r="U171" s="1"/>
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
+      <c r="X171" s="1"/>
     </row>
     <row r="172" ht="30.0" customHeight="1">
       <c r="A172" s="1"/>
@@ -4971,6 +5154,7 @@
       <c r="U172" s="1"/>
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
+      <c r="X172" s="1"/>
     </row>
     <row r="173" ht="30.0" customHeight="1">
       <c r="A173" s="1"/>
@@ -4996,6 +5180,7 @@
       <c r="U173" s="1"/>
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
+      <c r="X173" s="1"/>
     </row>
     <row r="174" ht="30.0" customHeight="1">
       <c r="A174" s="1"/>
@@ -5021,6 +5206,7 @@
       <c r="U174" s="1"/>
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
+      <c r="X174" s="1"/>
     </row>
     <row r="175" ht="30.0" customHeight="1">
       <c r="A175" s="1"/>
@@ -5046,6 +5232,7 @@
       <c r="U175" s="1"/>
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
+      <c r="X175" s="1"/>
     </row>
     <row r="176" ht="30.0" customHeight="1">
       <c r="A176" s="1"/>
@@ -5071,6 +5258,7 @@
       <c r="U176" s="1"/>
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
+      <c r="X176" s="1"/>
     </row>
     <row r="177" ht="30.0" customHeight="1">
       <c r="A177" s="1"/>
@@ -5096,6 +5284,7 @@
       <c r="U177" s="1"/>
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
+      <c r="X177" s="1"/>
     </row>
     <row r="178" ht="30.0" customHeight="1">
       <c r="A178" s="1"/>
@@ -5121,6 +5310,7 @@
       <c r="U178" s="1"/>
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
+      <c r="X178" s="1"/>
     </row>
     <row r="179" ht="30.0" customHeight="1">
       <c r="A179" s="1"/>
@@ -5146,6 +5336,7 @@
       <c r="U179" s="1"/>
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
+      <c r="X179" s="1"/>
     </row>
     <row r="180" ht="30.0" customHeight="1">
       <c r="A180" s="1"/>
@@ -5171,6 +5362,7 @@
       <c r="U180" s="1"/>
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
+      <c r="X180" s="1"/>
     </row>
     <row r="181" ht="30.0" customHeight="1">
       <c r="A181" s="1"/>
@@ -5196,6 +5388,7 @@
       <c r="U181" s="1"/>
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
+      <c r="X181" s="1"/>
     </row>
     <row r="182" ht="30.0" customHeight="1">
       <c r="A182" s="1"/>
@@ -5221,6 +5414,7 @@
       <c r="U182" s="1"/>
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
+      <c r="X182" s="1"/>
     </row>
     <row r="183" ht="30.0" customHeight="1">
       <c r="A183" s="1"/>
@@ -5246,6 +5440,7 @@
       <c r="U183" s="1"/>
       <c r="V183" s="1"/>
       <c r="W183" s="1"/>
+      <c r="X183" s="1"/>
     </row>
     <row r="184" ht="30.0" customHeight="1">
       <c r="A184" s="1"/>
@@ -5271,6 +5466,7 @@
       <c r="U184" s="1"/>
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
+      <c r="X184" s="1"/>
     </row>
     <row r="185" ht="30.0" customHeight="1">
       <c r="A185" s="1"/>
@@ -5296,6 +5492,7 @@
       <c r="U185" s="1"/>
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
+      <c r="X185" s="1"/>
     </row>
     <row r="186" ht="30.0" customHeight="1">
       <c r="A186" s="1"/>
@@ -5321,6 +5518,7 @@
       <c r="U186" s="1"/>
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
+      <c r="X186" s="1"/>
     </row>
     <row r="187" ht="30.0" customHeight="1">
       <c r="A187" s="1"/>
@@ -5346,6 +5544,7 @@
       <c r="U187" s="1"/>
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
+      <c r="X187" s="1"/>
     </row>
     <row r="188" ht="30.0" customHeight="1">
       <c r="A188" s="1"/>
@@ -5371,6 +5570,7 @@
       <c r="U188" s="1"/>
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
+      <c r="X188" s="1"/>
     </row>
     <row r="189" ht="30.0" customHeight="1">
       <c r="A189" s="1"/>
@@ -5396,6 +5596,7 @@
       <c r="U189" s="1"/>
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
+      <c r="X189" s="1"/>
     </row>
     <row r="190" ht="30.0" customHeight="1">
       <c r="A190" s="1"/>
@@ -5421,6 +5622,7 @@
       <c r="U190" s="1"/>
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
+      <c r="X190" s="1"/>
     </row>
     <row r="191" ht="30.0" customHeight="1">
       <c r="A191" s="1"/>
@@ -5446,6 +5648,7 @@
       <c r="U191" s="1"/>
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
+      <c r="X191" s="1"/>
     </row>
     <row r="192" ht="30.0" customHeight="1">
       <c r="A192" s="1"/>
@@ -5471,6 +5674,7 @@
       <c r="U192" s="1"/>
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
+      <c r="X192" s="1"/>
     </row>
     <row r="193" ht="30.0" customHeight="1">
       <c r="A193" s="1"/>
@@ -5496,6 +5700,7 @@
       <c r="U193" s="1"/>
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
+      <c r="X193" s="1"/>
     </row>
     <row r="194" ht="30.0" customHeight="1">
       <c r="A194" s="1"/>
@@ -5521,6 +5726,7 @@
       <c r="U194" s="1"/>
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
+      <c r="X194" s="1"/>
     </row>
     <row r="195" ht="30.0" customHeight="1">
       <c r="A195" s="1"/>
@@ -5546,6 +5752,7 @@
       <c r="U195" s="1"/>
       <c r="V195" s="1"/>
       <c r="W195" s="1"/>
+      <c r="X195" s="1"/>
     </row>
     <row r="196" ht="30.0" customHeight="1">
       <c r="A196" s="1"/>
@@ -5571,6 +5778,7 @@
       <c r="U196" s="1"/>
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
+      <c r="X196" s="1"/>
     </row>
     <row r="197" ht="30.0" customHeight="1">
       <c r="A197" s="1"/>
@@ -5596,6 +5804,7 @@
       <c r="U197" s="1"/>
       <c r="V197" s="1"/>
       <c r="W197" s="1"/>
+      <c r="X197" s="1"/>
     </row>
     <row r="198" ht="30.0" customHeight="1">
       <c r="A198" s="1"/>
@@ -5621,6 +5830,7 @@
       <c r="U198" s="1"/>
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
+      <c r="X198" s="1"/>
     </row>
     <row r="199" ht="30.0" customHeight="1">
       <c r="A199" s="1"/>
@@ -5646,6 +5856,7 @@
       <c r="U199" s="1"/>
       <c r="V199" s="1"/>
       <c r="W199" s="1"/>
+      <c r="X199" s="1"/>
     </row>
     <row r="200" ht="30.0" customHeight="1">
       <c r="A200" s="1"/>
@@ -5671,6 +5882,7 @@
       <c r="U200" s="1"/>
       <c r="V200" s="1"/>
       <c r="W200" s="1"/>
+      <c r="X200" s="1"/>
     </row>
     <row r="201" ht="30.0" customHeight="1">
       <c r="A201" s="1"/>
@@ -5696,6 +5908,7 @@
       <c r="U201" s="1"/>
       <c r="V201" s="1"/>
       <c r="W201" s="1"/>
+      <c r="X201" s="1"/>
     </row>
     <row r="202" ht="30.0" customHeight="1">
       <c r="A202" s="1"/>
@@ -5721,6 +5934,7 @@
       <c r="U202" s="1"/>
       <c r="V202" s="1"/>
       <c r="W202" s="1"/>
+      <c r="X202" s="1"/>
     </row>
     <row r="203" ht="30.0" customHeight="1">
       <c r="A203" s="1"/>
@@ -5746,6 +5960,7 @@
       <c r="U203" s="1"/>
       <c r="V203" s="1"/>
       <c r="W203" s="1"/>
+      <c r="X203" s="1"/>
     </row>
     <row r="204" ht="30.0" customHeight="1">
       <c r="A204" s="1"/>
@@ -5771,6 +5986,7 @@
       <c r="U204" s="1"/>
       <c r="V204" s="1"/>
       <c r="W204" s="1"/>
+      <c r="X204" s="1"/>
     </row>
     <row r="205" ht="30.0" customHeight="1">
       <c r="A205" s="1"/>
@@ -5796,6 +6012,7 @@
       <c r="U205" s="1"/>
       <c r="V205" s="1"/>
       <c r="W205" s="1"/>
+      <c r="X205" s="1"/>
     </row>
     <row r="206" ht="30.0" customHeight="1">
       <c r="A206" s="1"/>
@@ -5821,6 +6038,7 @@
       <c r="U206" s="1"/>
       <c r="V206" s="1"/>
       <c r="W206" s="1"/>
+      <c r="X206" s="1"/>
     </row>
     <row r="207" ht="30.0" customHeight="1">
       <c r="A207" s="1"/>
@@ -5846,6 +6064,7 @@
       <c r="U207" s="1"/>
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
+      <c r="X207" s="1"/>
     </row>
     <row r="208" ht="30.0" customHeight="1">
       <c r="A208" s="1"/>
@@ -5871,6 +6090,7 @@
       <c r="U208" s="1"/>
       <c r="V208" s="1"/>
       <c r="W208" s="1"/>
+      <c r="X208" s="1"/>
     </row>
     <row r="209" ht="30.0" customHeight="1">
       <c r="A209" s="1"/>
@@ -5896,6 +6116,7 @@
       <c r="U209" s="1"/>
       <c r="V209" s="1"/>
       <c r="W209" s="1"/>
+      <c r="X209" s="1"/>
     </row>
     <row r="210" ht="30.0" customHeight="1">
       <c r="A210" s="1"/>
@@ -5921,6 +6142,7 @@
       <c r="U210" s="1"/>
       <c r="V210" s="1"/>
       <c r="W210" s="1"/>
+      <c r="X210" s="1"/>
     </row>
     <row r="211" ht="30.0" customHeight="1">
       <c r="A211" s="1"/>
@@ -5946,6 +6168,7 @@
       <c r="U211" s="1"/>
       <c r="V211" s="1"/>
       <c r="W211" s="1"/>
+      <c r="X211" s="1"/>
     </row>
     <row r="212" ht="30.0" customHeight="1">
       <c r="A212" s="1"/>
@@ -5971,6 +6194,7 @@
       <c r="U212" s="1"/>
       <c r="V212" s="1"/>
       <c r="W212" s="1"/>
+      <c r="X212" s="1"/>
     </row>
     <row r="213" ht="30.0" customHeight="1">
       <c r="A213" s="1"/>
@@ -5996,6 +6220,7 @@
       <c r="U213" s="1"/>
       <c r="V213" s="1"/>
       <c r="W213" s="1"/>
+      <c r="X213" s="1"/>
     </row>
     <row r="214" ht="30.0" customHeight="1">
       <c r="A214" s="1"/>
@@ -6021,6 +6246,7 @@
       <c r="U214" s="1"/>
       <c r="V214" s="1"/>
       <c r="W214" s="1"/>
+      <c r="X214" s="1"/>
     </row>
     <row r="215" ht="30.0" customHeight="1">
       <c r="A215" s="1"/>
@@ -6046,6 +6272,7 @@
       <c r="U215" s="1"/>
       <c r="V215" s="1"/>
       <c r="W215" s="1"/>
+      <c r="X215" s="1"/>
     </row>
     <row r="216" ht="30.0" customHeight="1">
       <c r="A216" s="1"/>
@@ -6071,6 +6298,7 @@
       <c r="U216" s="1"/>
       <c r="V216" s="1"/>
       <c r="W216" s="1"/>
+      <c r="X216" s="1"/>
     </row>
     <row r="217" ht="30.0" customHeight="1">
       <c r="A217" s="1"/>
@@ -6096,6 +6324,7 @@
       <c r="U217" s="1"/>
       <c r="V217" s="1"/>
       <c r="W217" s="1"/>
+      <c r="X217" s="1"/>
     </row>
     <row r="218" ht="30.0" customHeight="1">
       <c r="A218" s="1"/>
@@ -6121,6 +6350,7 @@
       <c r="U218" s="1"/>
       <c r="V218" s="1"/>
       <c r="W218" s="1"/>
+      <c r="X218" s="1"/>
     </row>
     <row r="219" ht="30.0" customHeight="1">
       <c r="A219" s="1"/>
@@ -6146,6 +6376,7 @@
       <c r="U219" s="1"/>
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
+      <c r="X219" s="1"/>
     </row>
     <row r="220" ht="30.0" customHeight="1">
       <c r="A220" s="1"/>
@@ -6171,6 +6402,7 @@
       <c r="U220" s="1"/>
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
+      <c r="X220" s="1"/>
     </row>
     <row r="221" ht="30.0" customHeight="1">
       <c r="A221" s="1"/>
@@ -6196,6 +6428,7 @@
       <c r="U221" s="1"/>
       <c r="V221" s="1"/>
       <c r="W221" s="1"/>
+      <c r="X221" s="1"/>
     </row>
     <row r="222" ht="30.0" customHeight="1">
       <c r="A222" s="1"/>
@@ -6221,6 +6454,7 @@
       <c r="U222" s="1"/>
       <c r="V222" s="1"/>
       <c r="W222" s="1"/>
+      <c r="X222" s="1"/>
     </row>
     <row r="223" ht="30.0" customHeight="1">
       <c r="A223" s="1"/>
@@ -6246,6 +6480,7 @@
       <c r="U223" s="1"/>
       <c r="V223" s="1"/>
       <c r="W223" s="1"/>
+      <c r="X223" s="1"/>
     </row>
     <row r="224" ht="30.0" customHeight="1">
       <c r="A224" s="1"/>
@@ -6271,6 +6506,7 @@
       <c r="U224" s="1"/>
       <c r="V224" s="1"/>
       <c r="W224" s="1"/>
+      <c r="X224" s="1"/>
     </row>
     <row r="225" ht="30.0" customHeight="1">
       <c r="A225" s="1"/>
@@ -6296,6 +6532,7 @@
       <c r="U225" s="1"/>
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
+      <c r="X225" s="1"/>
     </row>
     <row r="226" ht="30.0" customHeight="1">
       <c r="A226" s="1"/>
@@ -6321,6 +6558,7 @@
       <c r="U226" s="1"/>
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
+      <c r="X226" s="1"/>
     </row>
     <row r="227" ht="15.75" customHeight="1"/>
     <row r="228" ht="15.75" customHeight="1"/>
@@ -7083,7 +7321,7 @@
     <mergeCell ref="C8:F8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H7"/>
+    <hyperlink r:id="rId1" ref="I7"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.748611111111111" footer="0.0" header="0.0" left="0.236111111111111" right="0.236111111111111" top="0.748611111111111"/>

--- a/excel_python/total_report.xlsx
+++ b/excel_python/total_report.xlsx
@@ -37,7 +37,7 @@
     <t>Lokführer</t>
   </si>
   <si>
-    <t>Stundenluhn</t>
+    <t>Stundenlohn</t>
   </si>
   <si>
     <t>Gesamttage</t>
@@ -55,10 +55,10 @@
     <t>NZ 40%</t>
   </si>
   <si>
-    <t>SZ</t>
+    <t>SZ 50%</t>
   </si>
   <si>
-    <t>FZ</t>
+    <t>FZ 100%</t>
   </si>
   <si>
     <t>Gastfahrt St.</t>

--- a/excel_python/total_report.xlsx
+++ b/excel_python/total_report.xlsx
@@ -403,9 +403,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3419475" cy="1914525"/>
     <xdr:pic>

--- a/excel_python/total_report.xlsx
+++ b/excel_python/total_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Monat</t>
   </si>
@@ -34,52 +34,62 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Lokführer</t>
+    <t>Mitarbeiter</t>
   </si>
   <si>
-    <t>Stundenlohn</t>
+    <t>Faktor</t>
   </si>
   <si>
-    <t>Gesamttage</t>
+    <t>Stundenlohn
+1000</t>
   </si>
   <si>
-    <t>Gesamtstunden</t>
+    <t>Gastfahrt
+1001</t>
   </si>
   <si>
-    <t>Überstunden</t>
+    <t>Schichtzulage
+1021</t>
   </si>
   <si>
-    <t>NZ 25%</t>
+    <t>Überstunden
+1100</t>
   </si>
   <si>
-    <t>NZ 40%</t>
+    <t>NZ 25%
+1500</t>
   </si>
   <si>
-    <t>SZ 50%</t>
+    <t>NZ 40%
+1501</t>
   </si>
   <si>
-    <t>FZ 100%</t>
+    <t>SZ 50%
+1510</t>
   </si>
   <si>
-    <t>Gastfahrt St.</t>
+    <t>FZ 100%
+1520</t>
   </si>
   <si>
-    <t xml:space="preserve">Schichtzulage		</t>
+    <t>Verpflegung
+9650</t>
   </si>
   <si>
-    <t>Verpflegung</t>
+    <t>Urlaub
+1600</t>
   </si>
   <si>
-    <t>Urlaub</t>
+    <t xml:space="preserve">Krank
+</t>
   </si>
   <si>
-    <t>Krank</t>
+    <t>Prämie
+2015</t>
   </si>
   <si>
-    <t>Bonus Zahlungen</t>
-  </si>
-  <si>
-    <t>Vorschuss Zahlungen</t>
+    <t>Vorschuss
+9000</t>
   </si>
 </sst>
 </file>
@@ -403,9 +413,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3419475" cy="1914525"/>
     <xdr:pic>
@@ -641,7 +651,7 @@
     <col customWidth="1" min="4" max="4" width="11.14"/>
     <col customWidth="1" min="5" max="6" width="13.71"/>
     <col customWidth="1" min="7" max="7" width="12.14"/>
-    <col customWidth="1" min="8" max="8" width="9.71"/>
+    <col customWidth="1" min="8" max="8" width="11.57"/>
     <col customWidth="1" min="9" max="9" width="8.43"/>
     <col customWidth="1" min="10" max="10" width="8.29"/>
     <col customWidth="1" min="11" max="11" width="9.71"/>
@@ -832,7 +842,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" ht="18.0" customHeight="1">
+    <row r="8" ht="21.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -908,9 +918,6 @@
       <c r="Q9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="31" t="s">
-        <v>22</v>
-      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -949,7 +956,6 @@
       <c r="B11" s="32"/>
       <c r="C11" s="1"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>

--- a/excel_python/total_report.xlsx
+++ b/excel_python/total_report.xlsx
@@ -41,43 +41,43 @@
   </si>
   <si>
     <t>Stundenlohn
-1000</t>
+(1000)</t>
   </si>
   <si>
     <t>Gastfahrt
-1001</t>
+(1001)</t>
   </si>
   <si>
     <t>Schichtzulage
-1021</t>
+(1021)</t>
   </si>
   <si>
     <t>Überstunden
-1100</t>
+(1100)</t>
   </si>
   <si>
     <t>NZ 25%
-1500</t>
+(1500)</t>
   </si>
   <si>
     <t>NZ 40%
-1501</t>
+(1501)</t>
   </si>
   <si>
     <t>SZ 50%
-1510</t>
+(1510)</t>
   </si>
   <si>
     <t>FZ 100%
-1520</t>
+(1520)</t>
   </si>
   <si>
     <t>Verpflegung
-9650</t>
+(9650)</t>
   </si>
   <si>
     <t>Urlaub
-1600</t>
+(1600)</t>
   </si>
   <si>
     <t xml:space="preserve">Krank
@@ -85,11 +85,11 @@
   </si>
   <si>
     <t>Prämie
-2015</t>
+(2015)</t>
   </si>
   <si>
     <t>Vorschuss
-9000</t>
+(9000)</t>
   </si>
 </sst>
 </file>

--- a/excel_python/total_report.xlsx
+++ b/excel_python/total_report.xlsx
@@ -72,16 +72,16 @@
 (1520)</t>
   </si>
   <si>
-    <t>Verpflegung
-(9650)</t>
-  </si>
-  <si>
     <t>Urlaub
 (1600)</t>
   </si>
   <si>
     <t xml:space="preserve">Krank
 </t>
+  </si>
+  <si>
+    <t>Verpflegung
+(9650)</t>
   </si>
   <si>
     <t>Prämie
@@ -102,7 +102,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00&quot; €&quot;;\-#,##0.00&quot; €&quot;"/>
     <numFmt numFmtId="167" formatCode="#,##0.0&quot;  km&quot;;\(#,##0.0&quot;) km&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -131,9 +131,10 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <b/>
+      <sz val="15.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Montserrat"/>
     </font>
     <font>
       <color theme="1"/>
@@ -141,17 +142,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="12.0"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Montserrat"/>
     </font>
     <font/>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="9.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Montserrat"/>
     </font>
   </fonts>
   <fills count="4">
@@ -260,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -321,19 +332,25 @@
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -342,7 +359,7 @@
     <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -351,10 +368,10 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="3" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="3" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -385,39 +402,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3333750" cy="1914525"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr descr="image1.png" id="0" name="image1.png" title="Resim"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3419475" cy="1914525"/>
+    <xdr:ext cx="2933700" cy="1685925"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr descr="image1.png" id="0" name="image1.png" title="Resim"/>
@@ -647,19 +636,19 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="2.71"/>
     <col customWidth="1" min="2" max="2" width="5.43"/>
-    <col customWidth="1" min="3" max="3" width="23.29"/>
-    <col customWidth="1" min="4" max="4" width="11.14"/>
+    <col customWidth="1" min="3" max="3" width="24.14"/>
+    <col customWidth="1" min="4" max="4" width="10.29"/>
     <col customWidth="1" min="5" max="6" width="13.71"/>
-    <col customWidth="1" min="7" max="7" width="12.14"/>
-    <col customWidth="1" min="8" max="8" width="11.57"/>
-    <col customWidth="1" min="9" max="9" width="8.43"/>
-    <col customWidth="1" min="10" max="10" width="8.29"/>
+    <col customWidth="1" min="7" max="7" width="14.71"/>
+    <col customWidth="1" min="8" max="8" width="14.0"/>
+    <col customWidth="1" min="9" max="9" width="8.71"/>
+    <col customWidth="1" min="10" max="10" width="8.57"/>
     <col customWidth="1" min="11" max="11" width="9.71"/>
     <col customWidth="1" min="12" max="13" width="11.86"/>
     <col customWidth="1" min="14" max="14" width="12.0"/>
-    <col customWidth="1" min="15" max="15" width="11.57"/>
+    <col customWidth="1" min="15" max="15" width="12.86"/>
     <col customWidth="1" min="16" max="16" width="8.71"/>
-    <col customWidth="1" min="17" max="17" width="9.0"/>
+    <col customWidth="1" min="17" max="17" width="10.86"/>
     <col customWidth="1" min="18" max="24" width="9.14"/>
   </cols>
   <sheetData>
@@ -749,11 +738,12 @@
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
       <c r="G4" s="4"/>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -775,10 +765,12 @@
       <c r="E5" s="18"/>
       <c r="F5" s="19"/>
       <c r="G5" s="4"/>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -794,16 +786,18 @@
     </row>
     <row r="6" ht="18.0" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -819,16 +813,18 @@
     </row>
     <row r="7" ht="18.0" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="I7" s="24" t="s">
+      <c r="H7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -844,19 +840,19 @@
     </row>
     <row r="8" ht="21.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -870,52 +866,52 @@
     </row>
     <row r="9" ht="28.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="31" t="s">
+      <c r="O9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="33" t="s">
         <v>21</v>
       </c>
       <c r="S9" s="1"/>
@@ -927,20 +923,20 @@
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="32"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -953,19 +949,19 @@
     </row>
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="32"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -978,20 +974,20 @@
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="32"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1004,20 +1000,20 @@
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="32"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1030,20 +1026,20 @@
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="32"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1056,20 +1052,20 @@
     </row>
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="32"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1082,20 +1078,20 @@
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="33"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1108,20 +1104,20 @@
     </row>
     <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="32"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1134,20 +1130,20 @@
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="32"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1160,20 +1156,20 @@
     </row>
     <row r="19" ht="30.0" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1186,19 +1182,19 @@
     </row>
     <row r="20" ht="30.0" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1212,19 +1208,19 @@
     </row>
     <row r="21" ht="30.0" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1238,19 +1234,19 @@
     </row>
     <row r="22" ht="30.0" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -1264,19 +1260,19 @@
     </row>
     <row r="23" ht="30.0" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -1290,19 +1286,19 @@
     </row>
     <row r="24" ht="30.0" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -7327,7 +7323,7 @@
     <mergeCell ref="C8:F8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I7"/>
+    <hyperlink r:id="rId1" ref="H7"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.748611111111111" footer="0.0" header="0.0" left="0.236111111111111" right="0.236111111111111" top="0.748611111111111"/>

--- a/excel_python/total_report.xlsx
+++ b/excel_python/total_report.xlsx
@@ -309,7 +309,7 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -636,7 +636,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="2.71"/>
     <col customWidth="1" min="2" max="2" width="5.43"/>
-    <col customWidth="1" min="3" max="3" width="24.14"/>
+    <col customWidth="1" min="3" max="3" width="26.86"/>
     <col customWidth="1" min="4" max="4" width="10.29"/>
     <col customWidth="1" min="5" max="6" width="13.71"/>
     <col customWidth="1" min="7" max="7" width="14.71"/>

--- a/excel_python/total_report.xlsx
+++ b/excel_python/total_report.xlsx
@@ -76,8 +76,8 @@
 (1600)</t>
   </si>
   <si>
-    <t xml:space="preserve">Krank
-</t>
+    <t>Krank
+(1650)</t>
   </si>
   <si>
     <t>Verpflegung

--- a/excel_python/total_report.xlsx
+++ b/excel_python/total_report.xlsx
@@ -85,7 +85,7 @@
   </si>
   <si>
     <t>Prämie
-(2015)</t>
+(5670)</t>
   </si>
   <si>
     <t>Vorschuss
@@ -139,7 +139,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -282,7 +281,7 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -294,13 +293,13 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -309,7 +308,7 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -369,7 +368,10 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="3" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="3" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -385,9 +387,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,7 +907,7 @@
       <c r="O9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="33" t="s">
+      <c r="P9" s="34" t="s">
         <v>20</v>
       </c>
       <c r="Q9" s="33" t="s">
@@ -923,20 +922,20 @@
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="34"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -949,19 +948,19 @@
     </row>
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="34"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
+      <c r="D11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -974,20 +973,20 @@
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="34"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1000,20 +999,20 @@
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="34"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1026,20 +1025,20 @@
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1052,20 +1051,20 @@
     </row>
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1078,20 +1077,20 @@
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="35"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1104,20 +1103,20 @@
     </row>
     <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1130,20 +1129,20 @@
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1156,20 +1155,20 @@
     </row>
     <row r="19" ht="30.0" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1182,19 +1181,19 @@
     </row>
     <row r="20" ht="30.0" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1208,19 +1207,19 @@
     </row>
     <row r="21" ht="30.0" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1234,19 +1233,19 @@
     </row>
     <row r="22" ht="30.0" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -1260,19 +1259,19 @@
     </row>
     <row r="23" ht="30.0" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -1286,19 +1285,19 @@
     </row>
     <row r="24" ht="30.0" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -6406,162 +6405,12 @@
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
     </row>
-    <row r="221" ht="30.0" customHeight="1">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
-      <c r="K221" s="1"/>
-      <c r="L221" s="1"/>
-      <c r="M221" s="1"/>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
-      <c r="P221" s="1"/>
-      <c r="Q221" s="1"/>
-      <c r="R221" s="1"/>
-      <c r="S221" s="1"/>
-      <c r="T221" s="1"/>
-      <c r="U221" s="1"/>
-      <c r="V221" s="1"/>
-      <c r="W221" s="1"/>
-      <c r="X221" s="1"/>
-    </row>
-    <row r="222" ht="30.0" customHeight="1">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
-      <c r="J222" s="1"/>
-      <c r="K222" s="1"/>
-      <c r="L222" s="1"/>
-      <c r="M222" s="1"/>
-      <c r="N222" s="1"/>
-      <c r="O222" s="1"/>
-      <c r="P222" s="1"/>
-      <c r="Q222" s="1"/>
-      <c r="R222" s="1"/>
-      <c r="S222" s="1"/>
-      <c r="T222" s="1"/>
-      <c r="U222" s="1"/>
-      <c r="V222" s="1"/>
-      <c r="W222" s="1"/>
-      <c r="X222" s="1"/>
-    </row>
-    <row r="223" ht="30.0" customHeight="1">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
-      <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
-      <c r="K223" s="1"/>
-      <c r="L223" s="1"/>
-      <c r="M223" s="1"/>
-      <c r="N223" s="1"/>
-      <c r="O223" s="1"/>
-      <c r="P223" s="1"/>
-      <c r="Q223" s="1"/>
-      <c r="R223" s="1"/>
-      <c r="S223" s="1"/>
-      <c r="T223" s="1"/>
-      <c r="U223" s="1"/>
-      <c r="V223" s="1"/>
-      <c r="W223" s="1"/>
-      <c r="X223" s="1"/>
-    </row>
-    <row r="224" ht="30.0" customHeight="1">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-      <c r="I224" s="1"/>
-      <c r="J224" s="1"/>
-      <c r="K224" s="1"/>
-      <c r="L224" s="1"/>
-      <c r="M224" s="1"/>
-      <c r="N224" s="1"/>
-      <c r="O224" s="1"/>
-      <c r="P224" s="1"/>
-      <c r="Q224" s="1"/>
-      <c r="R224" s="1"/>
-      <c r="S224" s="1"/>
-      <c r="T224" s="1"/>
-      <c r="U224" s="1"/>
-      <c r="V224" s="1"/>
-      <c r="W224" s="1"/>
-      <c r="X224" s="1"/>
-    </row>
-    <row r="225" ht="30.0" customHeight="1">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
-      <c r="J225" s="1"/>
-      <c r="K225" s="1"/>
-      <c r="L225" s="1"/>
-      <c r="M225" s="1"/>
-      <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
-      <c r="P225" s="1"/>
-      <c r="Q225" s="1"/>
-      <c r="R225" s="1"/>
-      <c r="S225" s="1"/>
-      <c r="T225" s="1"/>
-      <c r="U225" s="1"/>
-      <c r="V225" s="1"/>
-      <c r="W225" s="1"/>
-      <c r="X225" s="1"/>
-    </row>
-    <row r="226" ht="30.0" customHeight="1">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
-      <c r="J226" s="1"/>
-      <c r="K226" s="1"/>
-      <c r="L226" s="1"/>
-      <c r="M226" s="1"/>
-      <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
-      <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
-      <c r="R226" s="1"/>
-      <c r="S226" s="1"/>
-      <c r="T226" s="1"/>
-      <c r="U226" s="1"/>
-      <c r="V226" s="1"/>
-      <c r="W226" s="1"/>
-      <c r="X226" s="1"/>
-    </row>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
     <row r="228" ht="15.75" customHeight="1"/>
     <row r="229" ht="15.75" customHeight="1"/>
@@ -7318,6 +7167,24 @@
     <row r="980" ht="15.75" customHeight="1"/>
     <row r="981" ht="15.75" customHeight="1"/>
     <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C8:F8"/>

--- a/excel_python/total_report.xlsx
+++ b/excel_python/total_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Monat</t>
   </si>
@@ -50,6 +50,10 @@
   <si>
     <t>Schichtzulage
 (1021)</t>
+  </si>
+  <si>
+    <t>Ausbildung
+(X)</t>
   </si>
   <si>
     <t>Überstunden
@@ -400,7 +404,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -639,16 +643,16 @@
     <col customWidth="1" min="4" max="4" width="10.29"/>
     <col customWidth="1" min="5" max="6" width="13.71"/>
     <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="14.0"/>
-    <col customWidth="1" min="9" max="9" width="8.71"/>
-    <col customWidth="1" min="10" max="10" width="8.57"/>
-    <col customWidth="1" min="11" max="11" width="9.71"/>
-    <col customWidth="1" min="12" max="13" width="11.86"/>
-    <col customWidth="1" min="14" max="14" width="12.0"/>
-    <col customWidth="1" min="15" max="15" width="12.86"/>
-    <col customWidth="1" min="16" max="16" width="8.71"/>
-    <col customWidth="1" min="17" max="17" width="10.86"/>
-    <col customWidth="1" min="18" max="24" width="9.14"/>
+    <col customWidth="1" min="8" max="9" width="14.0"/>
+    <col customWidth="1" min="10" max="10" width="8.71"/>
+    <col customWidth="1" min="11" max="11" width="8.57"/>
+    <col customWidth="1" min="12" max="12" width="9.71"/>
+    <col customWidth="1" min="13" max="14" width="11.86"/>
+    <col customWidth="1" min="15" max="15" width="12.0"/>
+    <col customWidth="1" min="16" max="16" width="12.86"/>
+    <col customWidth="1" min="17" max="17" width="8.71"/>
+    <col customWidth="1" min="18" max="18" width="10.86"/>
+    <col customWidth="1" min="19" max="25" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -660,8 +664,8 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="1"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -676,6 +680,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
     <row r="2" ht="36.75" customHeight="1">
       <c r="A2" s="1"/>
@@ -686,8 +691,8 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -702,6 +707,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
     </row>
     <row r="3" ht="18.0" customHeight="1">
       <c r="A3" s="1"/>
@@ -713,7 +719,6 @@
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
-      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -726,6 +731,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
     </row>
     <row r="4" ht="18.0" customHeight="1">
       <c r="A4" s="1"/>
@@ -743,7 +749,6 @@
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
-      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -755,6 +760,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
     </row>
     <row r="5" ht="18.0" customHeight="1">
       <c r="A5" s="1"/>
@@ -770,7 +776,6 @@
       <c r="I5" s="20"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
-      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -782,6 +787,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
     </row>
     <row r="6" ht="18.0" customHeight="1">
       <c r="A6" s="1"/>
@@ -797,7 +803,6 @@
       <c r="I6" s="20"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
-      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -809,6 +814,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
     </row>
     <row r="7" ht="18.0" customHeight="1">
       <c r="A7" s="1"/>
@@ -824,7 +830,6 @@
       <c r="I7" s="20"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
-      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -836,6 +841,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
     </row>
     <row r="8" ht="21.75" customHeight="1">
       <c r="A8" s="1"/>
@@ -846,13 +852,13 @@
       <c r="F8" s="29"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
       <c r="N8" s="31"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="31"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -862,6 +868,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
     </row>
     <row r="9" ht="28.5" customHeight="1">
       <c r="A9" s="1"/>
@@ -883,7 +890,7 @@
       <c r="G9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="34" t="s">
         <v>12</v>
       </c>
       <c r="I9" s="33" t="s">
@@ -907,18 +914,21 @@
       <c r="O9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="P9" s="33" t="s">
         <v>20</v>
       </c>
       <c r="Q9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="1"/>
+      <c r="R9" s="33" t="s">
+        <v>22</v>
+      </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
@@ -929,14 +939,14 @@
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
-      <c r="N10" s="38"/>
+      <c r="N10" s="37"/>
       <c r="O10" s="38"/>
-      <c r="P10" s="1"/>
+      <c r="P10" s="38"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -945,6 +955,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
@@ -954,14 +965,14 @@
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
-      <c r="N11" s="38"/>
+      <c r="N11" s="37"/>
       <c r="O11" s="38"/>
-      <c r="P11" s="1"/>
+      <c r="P11" s="38"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -970,6 +981,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
@@ -980,14 +992,14 @@
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
-      <c r="N12" s="38"/>
+      <c r="N12" s="37"/>
       <c r="O12" s="38"/>
-      <c r="P12" s="1"/>
+      <c r="P12" s="38"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -996,6 +1008,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
@@ -1006,14 +1019,14 @@
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
-      <c r="N13" s="38"/>
+      <c r="N13" s="37"/>
       <c r="O13" s="38"/>
-      <c r="P13" s="1"/>
+      <c r="P13" s="38"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1022,6 +1035,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
@@ -1032,14 +1046,14 @@
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
-      <c r="N14" s="38"/>
+      <c r="N14" s="37"/>
       <c r="O14" s="38"/>
-      <c r="P14" s="1"/>
+      <c r="P14" s="38"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1048,6 +1062,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="1"/>
@@ -1058,14 +1073,14 @@
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
-      <c r="N15" s="38"/>
+      <c r="N15" s="37"/>
       <c r="O15" s="38"/>
-      <c r="P15" s="1"/>
+      <c r="P15" s="38"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1074,6 +1089,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
@@ -1091,7 +1107,7 @@
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
-      <c r="P16" s="1"/>
+      <c r="P16" s="36"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1100,6 +1116,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
@@ -1110,14 +1127,14 @@
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
       <c r="M17" s="37"/>
-      <c r="N17" s="38"/>
+      <c r="N17" s="37"/>
       <c r="O17" s="38"/>
-      <c r="P17" s="1"/>
+      <c r="P17" s="38"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -1126,6 +1143,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
@@ -1136,14 +1154,14 @@
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
-      <c r="N18" s="38"/>
+      <c r="N18" s="37"/>
       <c r="O18" s="38"/>
-      <c r="P18" s="1"/>
+      <c r="P18" s="38"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -1152,6 +1170,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
     </row>
     <row r="19" ht="30.0" customHeight="1">
       <c r="A19" s="1"/>
@@ -1167,7 +1186,7 @@
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
-      <c r="N19" s="1"/>
+      <c r="N19" s="36"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1178,6 +1197,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
     </row>
     <row r="20" ht="30.0" customHeight="1">
       <c r="A20" s="1"/>
@@ -1194,7 +1214,7 @@
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
-      <c r="O20" s="1"/>
+      <c r="O20" s="36"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1204,6 +1224,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
     </row>
     <row r="21" ht="30.0" customHeight="1">
       <c r="A21" s="1"/>
@@ -1220,7 +1241,7 @@
       <c r="L21" s="36"/>
       <c r="M21" s="36"/>
       <c r="N21" s="36"/>
-      <c r="O21" s="1"/>
+      <c r="O21" s="36"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1230,6 +1251,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
     </row>
     <row r="22" ht="30.0" customHeight="1">
       <c r="A22" s="1"/>
@@ -1246,7 +1268,7 @@
       <c r="L22" s="36"/>
       <c r="M22" s="36"/>
       <c r="N22" s="36"/>
-      <c r="O22" s="1"/>
+      <c r="O22" s="36"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1256,6 +1278,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
     </row>
     <row r="23" ht="30.0" customHeight="1">
       <c r="A23" s="1"/>
@@ -1272,7 +1295,7 @@
       <c r="L23" s="36"/>
       <c r="M23" s="36"/>
       <c r="N23" s="36"/>
-      <c r="O23" s="1"/>
+      <c r="O23" s="36"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1282,6 +1305,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
     </row>
     <row r="24" ht="30.0" customHeight="1">
       <c r="A24" s="1"/>
@@ -1298,7 +1322,7 @@
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
-      <c r="O24" s="1"/>
+      <c r="O24" s="36"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -1308,6 +1332,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
     </row>
     <row r="25" ht="30.0" customHeight="1">
       <c r="A25" s="1"/>
@@ -1334,6 +1359,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
     </row>
     <row r="26" ht="30.0" customHeight="1">
       <c r="A26" s="1"/>
@@ -1360,6 +1386,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
     </row>
     <row r="27" ht="30.0" customHeight="1">
       <c r="A27" s="1"/>
@@ -1386,6 +1413,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
     </row>
     <row r="28" ht="30.0" customHeight="1">
       <c r="A28" s="1"/>
@@ -1412,6 +1440,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
     </row>
     <row r="29" ht="30.0" customHeight="1">
       <c r="A29" s="1"/>
@@ -1438,6 +1467,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
     </row>
     <row r="30" ht="30.0" customHeight="1">
       <c r="A30" s="1"/>
@@ -1464,6 +1494,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
     </row>
     <row r="31" ht="30.0" customHeight="1">
       <c r="A31" s="1"/>
@@ -1490,6 +1521,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
     </row>
     <row r="32" ht="30.0" customHeight="1">
       <c r="A32" s="1"/>
@@ -1516,6 +1548,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
     </row>
     <row r="33" ht="30.0" customHeight="1">
       <c r="A33" s="1"/>
@@ -1542,6 +1575,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
     </row>
     <row r="34" ht="30.0" customHeight="1">
       <c r="A34" s="1"/>
@@ -1568,6 +1602,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
     </row>
     <row r="35" ht="30.0" customHeight="1">
       <c r="A35" s="1"/>
@@ -1594,6 +1629,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
     </row>
     <row r="36" ht="30.0" customHeight="1">
       <c r="A36" s="1"/>
@@ -1620,6 +1656,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
     </row>
     <row r="37" ht="30.0" customHeight="1">
       <c r="A37" s="1"/>
@@ -1646,6 +1683,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
     </row>
     <row r="38" ht="30.0" customHeight="1">
       <c r="A38" s="1"/>
@@ -1672,6 +1710,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
     </row>
     <row r="39" ht="30.0" customHeight="1">
       <c r="A39" s="1"/>
@@ -1698,6 +1737,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
     </row>
     <row r="40" ht="30.0" customHeight="1">
       <c r="A40" s="1"/>
@@ -1724,6 +1764,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
     </row>
     <row r="41" ht="30.0" customHeight="1">
       <c r="A41" s="1"/>
@@ -1750,6 +1791,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
     </row>
     <row r="42" ht="30.0" customHeight="1">
       <c r="A42" s="1"/>
@@ -1776,6 +1818,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
     </row>
     <row r="43" ht="30.0" customHeight="1">
       <c r="A43" s="1"/>
@@ -1802,6 +1845,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
     </row>
     <row r="44" ht="30.0" customHeight="1">
       <c r="A44" s="1"/>
@@ -1828,6 +1872,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
     </row>
     <row r="45" ht="30.0" customHeight="1">
       <c r="A45" s="1"/>
@@ -1854,6 +1899,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
     </row>
     <row r="46" ht="30.0" customHeight="1">
       <c r="A46" s="1"/>
@@ -1880,6 +1926,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
     </row>
     <row r="47" ht="30.0" customHeight="1">
       <c r="A47" s="1"/>
@@ -1906,6 +1953,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
     </row>
     <row r="48" ht="30.0" customHeight="1">
       <c r="A48" s="1"/>
@@ -1932,6 +1980,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
     </row>
     <row r="49" ht="30.0" customHeight="1">
       <c r="A49" s="1"/>
@@ -1958,6 +2007,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
     </row>
     <row r="50" ht="30.0" customHeight="1">
       <c r="A50" s="1"/>
@@ -1984,6 +2034,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
     </row>
     <row r="51" ht="30.0" customHeight="1">
       <c r="A51" s="1"/>
@@ -2010,6 +2061,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
     </row>
     <row r="52" ht="30.0" customHeight="1">
       <c r="A52" s="1"/>
@@ -2036,6 +2088,7 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
     </row>
     <row r="53" ht="30.0" customHeight="1">
       <c r="A53" s="1"/>
@@ -2062,6 +2115,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
     </row>
     <row r="54" ht="30.0" customHeight="1">
       <c r="A54" s="1"/>
@@ -2088,6 +2142,7 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
     </row>
     <row r="55" ht="30.0" customHeight="1">
       <c r="A55" s="1"/>
@@ -2114,6 +2169,7 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
     </row>
     <row r="56" ht="30.0" customHeight="1">
       <c r="A56" s="1"/>
@@ -2140,6 +2196,7 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
     </row>
     <row r="57" ht="30.0" customHeight="1">
       <c r="A57" s="1"/>
@@ -2166,6 +2223,7 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
     </row>
     <row r="58" ht="30.0" customHeight="1">
       <c r="A58" s="1"/>
@@ -2192,6 +2250,7 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
     </row>
     <row r="59" ht="30.0" customHeight="1">
       <c r="A59" s="1"/>
@@ -2218,6 +2277,7 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
     </row>
     <row r="60" ht="30.0" customHeight="1">
       <c r="A60" s="1"/>
@@ -2244,6 +2304,7 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
     </row>
     <row r="61" ht="30.0" customHeight="1">
       <c r="A61" s="1"/>
@@ -2270,6 +2331,7 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
     </row>
     <row r="62" ht="30.0" customHeight="1">
       <c r="A62" s="1"/>
@@ -2296,6 +2358,7 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
     </row>
     <row r="63" ht="30.0" customHeight="1">
       <c r="A63" s="1"/>
@@ -2322,6 +2385,7 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
     </row>
     <row r="64" ht="30.0" customHeight="1">
       <c r="A64" s="1"/>
@@ -2348,6 +2412,7 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
     </row>
     <row r="65" ht="30.0" customHeight="1">
       <c r="A65" s="1"/>
@@ -2374,6 +2439,7 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
     </row>
     <row r="66" ht="30.0" customHeight="1">
       <c r="A66" s="1"/>
@@ -2400,6 +2466,7 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
     </row>
     <row r="67" ht="30.0" customHeight="1">
       <c r="A67" s="1"/>
@@ -2426,6 +2493,7 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
     </row>
     <row r="68" ht="30.0" customHeight="1">
       <c r="A68" s="1"/>
@@ -2452,6 +2520,7 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
     </row>
     <row r="69" ht="30.0" customHeight="1">
       <c r="A69" s="1"/>
@@ -2478,6 +2547,7 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
     </row>
     <row r="70" ht="30.0" customHeight="1">
       <c r="A70" s="1"/>
@@ -2504,6 +2574,7 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
     </row>
     <row r="71" ht="30.0" customHeight="1">
       <c r="A71" s="1"/>
@@ -2530,6 +2601,7 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
     </row>
     <row r="72" ht="30.0" customHeight="1">
       <c r="A72" s="1"/>
@@ -2556,6 +2628,7 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
     </row>
     <row r="73" ht="30.0" customHeight="1">
       <c r="A73" s="1"/>
@@ -2582,6 +2655,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
     </row>
     <row r="74" ht="30.0" customHeight="1">
       <c r="A74" s="1"/>
@@ -2608,6 +2682,7 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
     </row>
     <row r="75" ht="30.0" customHeight="1">
       <c r="A75" s="1"/>
@@ -2634,6 +2709,7 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
     </row>
     <row r="76" ht="30.0" customHeight="1">
       <c r="A76" s="1"/>
@@ -2660,6 +2736,7 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
     </row>
     <row r="77" ht="30.0" customHeight="1">
       <c r="A77" s="1"/>
@@ -2686,6 +2763,7 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
     </row>
     <row r="78" ht="30.0" customHeight="1">
       <c r="A78" s="1"/>
@@ -2712,6 +2790,7 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
     </row>
     <row r="79" ht="30.0" customHeight="1">
       <c r="A79" s="1"/>
@@ -2738,6 +2817,7 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
     </row>
     <row r="80" ht="30.0" customHeight="1">
       <c r="A80" s="1"/>
@@ -2764,6 +2844,7 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
     </row>
     <row r="81" ht="30.0" customHeight="1">
       <c r="A81" s="1"/>
@@ -2790,6 +2871,7 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
     </row>
     <row r="82" ht="30.0" customHeight="1">
       <c r="A82" s="1"/>
@@ -2816,6 +2898,7 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
     </row>
     <row r="83" ht="30.0" customHeight="1">
       <c r="A83" s="1"/>
@@ -2842,6 +2925,7 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
     </row>
     <row r="84" ht="30.0" customHeight="1">
       <c r="A84" s="1"/>
@@ -2868,6 +2952,7 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
     </row>
     <row r="85" ht="30.0" customHeight="1">
       <c r="A85" s="1"/>
@@ -2894,6 +2979,7 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
     </row>
     <row r="86" ht="30.0" customHeight="1">
       <c r="A86" s="1"/>
@@ -2920,6 +3006,7 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
     </row>
     <row r="87" ht="30.0" customHeight="1">
       <c r="A87" s="1"/>
@@ -2946,6 +3033,7 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
     </row>
     <row r="88" ht="30.0" customHeight="1">
       <c r="A88" s="1"/>
@@ -2972,6 +3060,7 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
     </row>
     <row r="89" ht="30.0" customHeight="1">
       <c r="A89" s="1"/>
@@ -2998,6 +3087,7 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
     </row>
     <row r="90" ht="30.0" customHeight="1">
       <c r="A90" s="1"/>
@@ -3024,6 +3114,7 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
     </row>
     <row r="91" ht="30.0" customHeight="1">
       <c r="A91" s="1"/>
@@ -3050,6 +3141,7 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
     </row>
     <row r="92" ht="30.0" customHeight="1">
       <c r="A92" s="1"/>
@@ -3076,6 +3168,7 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
     </row>
     <row r="93" ht="30.0" customHeight="1">
       <c r="A93" s="1"/>
@@ -3102,6 +3195,7 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
     </row>
     <row r="94" ht="30.0" customHeight="1">
       <c r="A94" s="1"/>
@@ -3128,6 +3222,7 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
     </row>
     <row r="95" ht="30.0" customHeight="1">
       <c r="A95" s="1"/>
@@ -3154,6 +3249,7 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
     </row>
     <row r="96" ht="30.0" customHeight="1">
       <c r="A96" s="1"/>
@@ -3180,6 +3276,7 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
     </row>
     <row r="97" ht="30.0" customHeight="1">
       <c r="A97" s="1"/>
@@ -3206,6 +3303,7 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
     </row>
     <row r="98" ht="30.0" customHeight="1">
       <c r="A98" s="1"/>
@@ -3232,6 +3330,7 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
     </row>
     <row r="99" ht="30.0" customHeight="1">
       <c r="A99" s="1"/>
@@ -3258,6 +3357,7 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
     </row>
     <row r="100" ht="30.0" customHeight="1">
       <c r="A100" s="1"/>
@@ -3284,6 +3384,7 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
     </row>
     <row r="101" ht="30.0" customHeight="1">
       <c r="A101" s="1"/>
@@ -3310,6 +3411,7 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
     </row>
     <row r="102" ht="30.0" customHeight="1">
       <c r="A102" s="1"/>
@@ -3336,6 +3438,7 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
     </row>
     <row r="103" ht="30.0" customHeight="1">
       <c r="A103" s="1"/>
@@ -3362,6 +3465,7 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
     </row>
     <row r="104" ht="30.0" customHeight="1">
       <c r="A104" s="1"/>
@@ -3388,6 +3492,7 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
     </row>
     <row r="105" ht="30.0" customHeight="1">
       <c r="A105" s="1"/>
@@ -3414,6 +3519,7 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
     </row>
     <row r="106" ht="30.0" customHeight="1">
       <c r="A106" s="1"/>
@@ -3440,6 +3546,7 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
     </row>
     <row r="107" ht="30.0" customHeight="1">
       <c r="A107" s="1"/>
@@ -3466,6 +3573,7 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
     </row>
     <row r="108" ht="30.0" customHeight="1">
       <c r="A108" s="1"/>
@@ -3492,6 +3600,7 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
     </row>
     <row r="109" ht="30.0" customHeight="1">
       <c r="A109" s="1"/>
@@ -3518,6 +3627,7 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
     </row>
     <row r="110" ht="30.0" customHeight="1">
       <c r="A110" s="1"/>
@@ -3544,6 +3654,7 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
     </row>
     <row r="111" ht="30.0" customHeight="1">
       <c r="A111" s="1"/>
@@ -3570,6 +3681,7 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
     </row>
     <row r="112" ht="30.0" customHeight="1">
       <c r="A112" s="1"/>
@@ -3596,6 +3708,7 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
     </row>
     <row r="113" ht="30.0" customHeight="1">
       <c r="A113" s="1"/>
@@ -3622,6 +3735,7 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
     </row>
     <row r="114" ht="30.0" customHeight="1">
       <c r="A114" s="1"/>
@@ -3648,6 +3762,7 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
     </row>
     <row r="115" ht="30.0" customHeight="1">
       <c r="A115" s="1"/>
@@ -3674,6 +3789,7 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
     </row>
     <row r="116" ht="30.0" customHeight="1">
       <c r="A116" s="1"/>
@@ -3700,6 +3816,7 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
     </row>
     <row r="117" ht="30.0" customHeight="1">
       <c r="A117" s="1"/>
@@ -3726,6 +3843,7 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
     </row>
     <row r="118" ht="30.0" customHeight="1">
       <c r="A118" s="1"/>
@@ -3752,6 +3870,7 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
     </row>
     <row r="119" ht="30.0" customHeight="1">
       <c r="A119" s="1"/>
@@ -3778,6 +3897,7 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
     </row>
     <row r="120" ht="30.0" customHeight="1">
       <c r="A120" s="1"/>
@@ -3804,6 +3924,7 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
     </row>
     <row r="121" ht="30.0" customHeight="1">
       <c r="A121" s="1"/>
@@ -3830,6 +3951,7 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
+      <c r="Y121" s="1"/>
     </row>
     <row r="122" ht="30.0" customHeight="1">
       <c r="A122" s="1"/>
@@ -3856,6 +3978,7 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
+      <c r="Y122" s="1"/>
     </row>
     <row r="123" ht="30.0" customHeight="1">
       <c r="A123" s="1"/>
@@ -3882,6 +4005,7 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
+      <c r="Y123" s="1"/>
     </row>
     <row r="124" ht="30.0" customHeight="1">
       <c r="A124" s="1"/>
@@ -3908,6 +4032,7 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
+      <c r="Y124" s="1"/>
     </row>
     <row r="125" ht="30.0" customHeight="1">
       <c r="A125" s="1"/>
@@ -3934,6 +4059,7 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
+      <c r="Y125" s="1"/>
     </row>
     <row r="126" ht="30.0" customHeight="1">
       <c r="A126" s="1"/>
@@ -3960,6 +4086,7 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
+      <c r="Y126" s="1"/>
     </row>
     <row r="127" ht="30.0" customHeight="1">
       <c r="A127" s="1"/>
@@ -3986,6 +4113,7 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
+      <c r="Y127" s="1"/>
     </row>
     <row r="128" ht="30.0" customHeight="1">
       <c r="A128" s="1"/>
@@ -4012,6 +4140,7 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
+      <c r="Y128" s="1"/>
     </row>
     <row r="129" ht="30.0" customHeight="1">
       <c r="A129" s="1"/>
@@ -4038,6 +4167,7 @@
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
+      <c r="Y129" s="1"/>
     </row>
     <row r="130" ht="30.0" customHeight="1">
       <c r="A130" s="1"/>
@@ -4064,6 +4194,7 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
+      <c r="Y130" s="1"/>
     </row>
     <row r="131" ht="30.0" customHeight="1">
       <c r="A131" s="1"/>
@@ -4090,6 +4221,7 @@
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
+      <c r="Y131" s="1"/>
     </row>
     <row r="132" ht="30.0" customHeight="1">
       <c r="A132" s="1"/>
@@ -4116,6 +4248,7 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
+      <c r="Y132" s="1"/>
     </row>
     <row r="133" ht="30.0" customHeight="1">
       <c r="A133" s="1"/>
@@ -4142,6 +4275,7 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
+      <c r="Y133" s="1"/>
     </row>
     <row r="134" ht="30.0" customHeight="1">
       <c r="A134" s="1"/>
@@ -4168,6 +4302,7 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
+      <c r="Y134" s="1"/>
     </row>
     <row r="135" ht="30.0" customHeight="1">
       <c r="A135" s="1"/>
@@ -4194,6 +4329,7 @@
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
+      <c r="Y135" s="1"/>
     </row>
     <row r="136" ht="30.0" customHeight="1">
       <c r="A136" s="1"/>
@@ -4220,6 +4356,7 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
+      <c r="Y136" s="1"/>
     </row>
     <row r="137" ht="30.0" customHeight="1">
       <c r="A137" s="1"/>
@@ -4246,6 +4383,7 @@
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
+      <c r="Y137" s="1"/>
     </row>
     <row r="138" ht="30.0" customHeight="1">
       <c r="A138" s="1"/>
@@ -4272,6 +4410,7 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
+      <c r="Y138" s="1"/>
     </row>
     <row r="139" ht="30.0" customHeight="1">
       <c r="A139" s="1"/>
@@ -4298,6 +4437,7 @@
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
+      <c r="Y139" s="1"/>
     </row>
     <row r="140" ht="30.0" customHeight="1">
       <c r="A140" s="1"/>
@@ -4324,6 +4464,7 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
+      <c r="Y140" s="1"/>
     </row>
     <row r="141" ht="30.0" customHeight="1">
       <c r="A141" s="1"/>
@@ -4350,6 +4491,7 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
+      <c r="Y141" s="1"/>
     </row>
     <row r="142" ht="30.0" customHeight="1">
       <c r="A142" s="1"/>
@@ -4376,6 +4518,7 @@
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
+      <c r="Y142" s="1"/>
     </row>
     <row r="143" ht="30.0" customHeight="1">
       <c r="A143" s="1"/>
@@ -4402,6 +4545,7 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
+      <c r="Y143" s="1"/>
     </row>
     <row r="144" ht="30.0" customHeight="1">
       <c r="A144" s="1"/>
@@ -4428,6 +4572,7 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
+      <c r="Y144" s="1"/>
     </row>
     <row r="145" ht="30.0" customHeight="1">
       <c r="A145" s="1"/>
@@ -4454,6 +4599,7 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
+      <c r="Y145" s="1"/>
     </row>
     <row r="146" ht="30.0" customHeight="1">
       <c r="A146" s="1"/>
@@ -4480,6 +4626,7 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
+      <c r="Y146" s="1"/>
     </row>
     <row r="147" ht="30.0" customHeight="1">
       <c r="A147" s="1"/>
@@ -4506,6 +4653,7 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
+      <c r="Y147" s="1"/>
     </row>
     <row r="148" ht="30.0" customHeight="1">
       <c r="A148" s="1"/>
@@ -4532,6 +4680,7 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
+      <c r="Y148" s="1"/>
     </row>
     <row r="149" ht="30.0" customHeight="1">
       <c r="A149" s="1"/>
@@ -4558,6 +4707,7 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
+      <c r="Y149" s="1"/>
     </row>
     <row r="150" ht="30.0" customHeight="1">
       <c r="A150" s="1"/>
@@ -4584,6 +4734,7 @@
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
+      <c r="Y150" s="1"/>
     </row>
     <row r="151" ht="30.0" customHeight="1">
       <c r="A151" s="1"/>
@@ -4610,6 +4761,7 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
+      <c r="Y151" s="1"/>
     </row>
     <row r="152" ht="30.0" customHeight="1">
       <c r="A152" s="1"/>
@@ -4636,6 +4788,7 @@
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
+      <c r="Y152" s="1"/>
     </row>
     <row r="153" ht="30.0" customHeight="1">
       <c r="A153" s="1"/>
@@ -4662,6 +4815,7 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
+      <c r="Y153" s="1"/>
     </row>
     <row r="154" ht="30.0" customHeight="1">
       <c r="A154" s="1"/>
@@ -4688,6 +4842,7 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
+      <c r="Y154" s="1"/>
     </row>
     <row r="155" ht="30.0" customHeight="1">
       <c r="A155" s="1"/>
@@ -4714,6 +4869,7 @@
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
+      <c r="Y155" s="1"/>
     </row>
     <row r="156" ht="30.0" customHeight="1">
       <c r="A156" s="1"/>
@@ -4740,6 +4896,7 @@
       <c r="V156" s="1"/>
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
+      <c r="Y156" s="1"/>
     </row>
     <row r="157" ht="30.0" customHeight="1">
       <c r="A157" s="1"/>
@@ -4766,6 +4923,7 @@
       <c r="V157" s="1"/>
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
+      <c r="Y157" s="1"/>
     </row>
     <row r="158" ht="30.0" customHeight="1">
       <c r="A158" s="1"/>
@@ -4792,6 +4950,7 @@
       <c r="V158" s="1"/>
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
+      <c r="Y158" s="1"/>
     </row>
     <row r="159" ht="30.0" customHeight="1">
       <c r="A159" s="1"/>
@@ -4818,6 +4977,7 @@
       <c r="V159" s="1"/>
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
+      <c r="Y159" s="1"/>
     </row>
     <row r="160" ht="30.0" customHeight="1">
       <c r="A160" s="1"/>
@@ -4844,6 +5004,7 @@
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
+      <c r="Y160" s="1"/>
     </row>
     <row r="161" ht="30.0" customHeight="1">
       <c r="A161" s="1"/>
@@ -4870,6 +5031,7 @@
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
+      <c r="Y161" s="1"/>
     </row>
     <row r="162" ht="30.0" customHeight="1">
       <c r="A162" s="1"/>
@@ -4896,6 +5058,7 @@
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
+      <c r="Y162" s="1"/>
     </row>
     <row r="163" ht="30.0" customHeight="1">
       <c r="A163" s="1"/>
@@ -4922,6 +5085,7 @@
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
+      <c r="Y163" s="1"/>
     </row>
     <row r="164" ht="30.0" customHeight="1">
       <c r="A164" s="1"/>
@@ -4948,6 +5112,7 @@
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
+      <c r="Y164" s="1"/>
     </row>
     <row r="165" ht="30.0" customHeight="1">
       <c r="A165" s="1"/>
@@ -4974,6 +5139,7 @@
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
+      <c r="Y165" s="1"/>
     </row>
     <row r="166" ht="30.0" customHeight="1">
       <c r="A166" s="1"/>
@@ -5000,6 +5166,7 @@
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
+      <c r="Y166" s="1"/>
     </row>
     <row r="167" ht="30.0" customHeight="1">
       <c r="A167" s="1"/>
@@ -5026,6 +5193,7 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
+      <c r="Y167" s="1"/>
     </row>
     <row r="168" ht="30.0" customHeight="1">
       <c r="A168" s="1"/>
@@ -5052,6 +5220,7 @@
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
+      <c r="Y168" s="1"/>
     </row>
     <row r="169" ht="30.0" customHeight="1">
       <c r="A169" s="1"/>
@@ -5078,6 +5247,7 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
+      <c r="Y169" s="1"/>
     </row>
     <row r="170" ht="30.0" customHeight="1">
       <c r="A170" s="1"/>
@@ -5104,6 +5274,7 @@
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
+      <c r="Y170" s="1"/>
     </row>
     <row r="171" ht="30.0" customHeight="1">
       <c r="A171" s="1"/>
@@ -5130,6 +5301,7 @@
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
+      <c r="Y171" s="1"/>
     </row>
     <row r="172" ht="30.0" customHeight="1">
       <c r="A172" s="1"/>
@@ -5156,6 +5328,7 @@
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
+      <c r="Y172" s="1"/>
     </row>
     <row r="173" ht="30.0" customHeight="1">
       <c r="A173" s="1"/>
@@ -5182,6 +5355,7 @@
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
+      <c r="Y173" s="1"/>
     </row>
     <row r="174" ht="30.0" customHeight="1">
       <c r="A174" s="1"/>
@@ -5208,6 +5382,7 @@
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
+      <c r="Y174" s="1"/>
     </row>
     <row r="175" ht="30.0" customHeight="1">
       <c r="A175" s="1"/>
@@ -5234,6 +5409,7 @@
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
+      <c r="Y175" s="1"/>
     </row>
     <row r="176" ht="30.0" customHeight="1">
       <c r="A176" s="1"/>
@@ -5260,6 +5436,7 @@
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
+      <c r="Y176" s="1"/>
     </row>
     <row r="177" ht="30.0" customHeight="1">
       <c r="A177" s="1"/>
@@ -5286,6 +5463,7 @@
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
+      <c r="Y177" s="1"/>
     </row>
     <row r="178" ht="30.0" customHeight="1">
       <c r="A178" s="1"/>
@@ -5312,6 +5490,7 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
+      <c r="Y178" s="1"/>
     </row>
     <row r="179" ht="30.0" customHeight="1">
       <c r="A179" s="1"/>
@@ -5338,6 +5517,7 @@
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
+      <c r="Y179" s="1"/>
     </row>
     <row r="180" ht="30.0" customHeight="1">
       <c r="A180" s="1"/>
@@ -5364,6 +5544,7 @@
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
+      <c r="Y180" s="1"/>
     </row>
     <row r="181" ht="30.0" customHeight="1">
       <c r="A181" s="1"/>
@@ -5390,6 +5571,7 @@
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
+      <c r="Y181" s="1"/>
     </row>
     <row r="182" ht="30.0" customHeight="1">
       <c r="A182" s="1"/>
@@ -5416,6 +5598,7 @@
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
+      <c r="Y182" s="1"/>
     </row>
     <row r="183" ht="30.0" customHeight="1">
       <c r="A183" s="1"/>
@@ -5442,6 +5625,7 @@
       <c r="V183" s="1"/>
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
+      <c r="Y183" s="1"/>
     </row>
     <row r="184" ht="30.0" customHeight="1">
       <c r="A184" s="1"/>
@@ -5468,6 +5652,7 @@
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
+      <c r="Y184" s="1"/>
     </row>
     <row r="185" ht="30.0" customHeight="1">
       <c r="A185" s="1"/>
@@ -5494,6 +5679,7 @@
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
+      <c r="Y185" s="1"/>
     </row>
     <row r="186" ht="30.0" customHeight="1">
       <c r="A186" s="1"/>
@@ -5520,6 +5706,7 @@
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
+      <c r="Y186" s="1"/>
     </row>
     <row r="187" ht="30.0" customHeight="1">
       <c r="A187" s="1"/>
@@ -5546,6 +5733,7 @@
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
+      <c r="Y187" s="1"/>
     </row>
     <row r="188" ht="30.0" customHeight="1">
       <c r="A188" s="1"/>
@@ -5572,6 +5760,7 @@
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
+      <c r="Y188" s="1"/>
     </row>
     <row r="189" ht="30.0" customHeight="1">
       <c r="A189" s="1"/>
@@ -5598,6 +5787,7 @@
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
+      <c r="Y189" s="1"/>
     </row>
     <row r="190" ht="30.0" customHeight="1">
       <c r="A190" s="1"/>
@@ -5624,6 +5814,7 @@
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
+      <c r="Y190" s="1"/>
     </row>
     <row r="191" ht="30.0" customHeight="1">
       <c r="A191" s="1"/>
@@ -5650,6 +5841,7 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
+      <c r="Y191" s="1"/>
     </row>
     <row r="192" ht="30.0" customHeight="1">
       <c r="A192" s="1"/>
@@ -5676,6 +5868,7 @@
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
+      <c r="Y192" s="1"/>
     </row>
     <row r="193" ht="30.0" customHeight="1">
       <c r="A193" s="1"/>
@@ -5702,6 +5895,7 @@
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
+      <c r="Y193" s="1"/>
     </row>
     <row r="194" ht="30.0" customHeight="1">
       <c r="A194" s="1"/>
@@ -5728,6 +5922,7 @@
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
+      <c r="Y194" s="1"/>
     </row>
     <row r="195" ht="30.0" customHeight="1">
       <c r="A195" s="1"/>
@@ -5754,6 +5949,7 @@
       <c r="V195" s="1"/>
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
+      <c r="Y195" s="1"/>
     </row>
     <row r="196" ht="30.0" customHeight="1">
       <c r="A196" s="1"/>
@@ -5780,6 +5976,7 @@
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
+      <c r="Y196" s="1"/>
     </row>
     <row r="197" ht="30.0" customHeight="1">
       <c r="A197" s="1"/>
@@ -5806,6 +6003,7 @@
       <c r="V197" s="1"/>
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
+      <c r="Y197" s="1"/>
     </row>
     <row r="198" ht="30.0" customHeight="1">
       <c r="A198" s="1"/>
@@ -5832,6 +6030,7 @@
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
+      <c r="Y198" s="1"/>
     </row>
     <row r="199" ht="30.0" customHeight="1">
       <c r="A199" s="1"/>
@@ -5858,6 +6057,7 @@
       <c r="V199" s="1"/>
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
+      <c r="Y199" s="1"/>
     </row>
     <row r="200" ht="30.0" customHeight="1">
       <c r="A200" s="1"/>
@@ -5884,6 +6084,7 @@
       <c r="V200" s="1"/>
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
+      <c r="Y200" s="1"/>
     </row>
     <row r="201" ht="30.0" customHeight="1">
       <c r="A201" s="1"/>
@@ -5910,6 +6111,7 @@
       <c r="V201" s="1"/>
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
+      <c r="Y201" s="1"/>
     </row>
     <row r="202" ht="30.0" customHeight="1">
       <c r="A202" s="1"/>
@@ -5936,6 +6138,7 @@
       <c r="V202" s="1"/>
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
+      <c r="Y202" s="1"/>
     </row>
     <row r="203" ht="30.0" customHeight="1">
       <c r="A203" s="1"/>
@@ -5962,6 +6165,7 @@
       <c r="V203" s="1"/>
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
+      <c r="Y203" s="1"/>
     </row>
     <row r="204" ht="30.0" customHeight="1">
       <c r="A204" s="1"/>
@@ -5988,6 +6192,7 @@
       <c r="V204" s="1"/>
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
+      <c r="Y204" s="1"/>
     </row>
     <row r="205" ht="30.0" customHeight="1">
       <c r="A205" s="1"/>
@@ -6014,6 +6219,7 @@
       <c r="V205" s="1"/>
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
+      <c r="Y205" s="1"/>
     </row>
     <row r="206" ht="30.0" customHeight="1">
       <c r="A206" s="1"/>
@@ -6040,6 +6246,7 @@
       <c r="V206" s="1"/>
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
+      <c r="Y206" s="1"/>
     </row>
     <row r="207" ht="30.0" customHeight="1">
       <c r="A207" s="1"/>
@@ -6066,6 +6273,7 @@
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
+      <c r="Y207" s="1"/>
     </row>
     <row r="208" ht="30.0" customHeight="1">
       <c r="A208" s="1"/>
@@ -6092,6 +6300,7 @@
       <c r="V208" s="1"/>
       <c r="W208" s="1"/>
       <c r="X208" s="1"/>
+      <c r="Y208" s="1"/>
     </row>
     <row r="209" ht="30.0" customHeight="1">
       <c r="A209" s="1"/>
@@ -6118,6 +6327,7 @@
       <c r="V209" s="1"/>
       <c r="W209" s="1"/>
       <c r="X209" s="1"/>
+      <c r="Y209" s="1"/>
     </row>
     <row r="210" ht="30.0" customHeight="1">
       <c r="A210" s="1"/>
@@ -6144,6 +6354,7 @@
       <c r="V210" s="1"/>
       <c r="W210" s="1"/>
       <c r="X210" s="1"/>
+      <c r="Y210" s="1"/>
     </row>
     <row r="211" ht="30.0" customHeight="1">
       <c r="A211" s="1"/>
@@ -6170,6 +6381,7 @@
       <c r="V211" s="1"/>
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
+      <c r="Y211" s="1"/>
     </row>
     <row r="212" ht="30.0" customHeight="1">
       <c r="A212" s="1"/>
@@ -6196,6 +6408,7 @@
       <c r="V212" s="1"/>
       <c r="W212" s="1"/>
       <c r="X212" s="1"/>
+      <c r="Y212" s="1"/>
     </row>
     <row r="213" ht="30.0" customHeight="1">
       <c r="A213" s="1"/>
@@ -6222,6 +6435,7 @@
       <c r="V213" s="1"/>
       <c r="W213" s="1"/>
       <c r="X213" s="1"/>
+      <c r="Y213" s="1"/>
     </row>
     <row r="214" ht="30.0" customHeight="1">
       <c r="A214" s="1"/>
@@ -6248,6 +6462,7 @@
       <c r="V214" s="1"/>
       <c r="W214" s="1"/>
       <c r="X214" s="1"/>
+      <c r="Y214" s="1"/>
     </row>
     <row r="215" ht="30.0" customHeight="1">
       <c r="A215" s="1"/>
@@ -6274,6 +6489,7 @@
       <c r="V215" s="1"/>
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
+      <c r="Y215" s="1"/>
     </row>
     <row r="216" ht="30.0" customHeight="1">
       <c r="A216" s="1"/>
@@ -6300,6 +6516,7 @@
       <c r="V216" s="1"/>
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
+      <c r="Y216" s="1"/>
     </row>
     <row r="217" ht="30.0" customHeight="1">
       <c r="A217" s="1"/>
@@ -6326,6 +6543,7 @@
       <c r="V217" s="1"/>
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
+      <c r="Y217" s="1"/>
     </row>
     <row r="218" ht="30.0" customHeight="1">
       <c r="A218" s="1"/>
@@ -6352,6 +6570,7 @@
       <c r="V218" s="1"/>
       <c r="W218" s="1"/>
       <c r="X218" s="1"/>
+      <c r="Y218" s="1"/>
     </row>
     <row r="219" ht="30.0" customHeight="1">
       <c r="A219" s="1"/>
@@ -6378,6 +6597,7 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
+      <c r="Y219" s="1"/>
     </row>
     <row r="220" ht="30.0" customHeight="1">
       <c r="A220" s="1"/>
@@ -6404,6 +6624,7 @@
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
+      <c r="Y220" s="1"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
